--- a/芯片申请.xlsx
+++ b/芯片申请.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TI" sheetId="1" r:id="rId1"/>
@@ -1686,9 +1686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2 位 20 MSPS ADC，具有 内部/外部参考、2 至 5Vpp 之间的灵活 I/P、超出范围指示信号和引脚兼容</t>
-  </si>
-  <si>
     <t>ADS822E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3169,9 +3166,6 @@
     <t>ISO5500DW</t>
   </si>
   <si>
-    <t>2.5A 隔离式 IGBT/MOSFET 闸极驱动器</t>
-  </si>
-  <si>
     <t>SO-16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3238,9 +3232,6 @@
   </si>
   <si>
     <t>TMP451AIDQFT</t>
-  </si>
-  <si>
-    <t>具有 N-Factor 校正的 ±1°C 远程和本地温度传感器</t>
   </si>
   <si>
     <t>SON-8</t>
@@ -4671,10 +4662,6 @@
   </si>
   <si>
     <t>LM311</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基友选通信号的差动比较器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5559,6 +5546,22 @@
   </si>
   <si>
     <t xml:space="preserve">Stereo CODEC With Speaker Driver </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5A 隔离式 IGBT/MOSFET 闸极驱动器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有 N-Factor 校正的 ±1°C 远程和本地温度传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 位 20 MSPS ADC，具有 内部/外部参考、2 至 5Vpp 之间的灵活 I/P、超出范围指示信号和引脚兼容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选通信号的差动比较器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6045,8 +6048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E478"/>
   <sheetViews>
-    <sheetView topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="C369" sqref="C369"/>
+    <sheetView topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="C370" sqref="C370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6079,13 +6082,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C3" t="s">
         <v>568</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="5" t="s">
         <v>569</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>570</v>
       </c>
       <c r="E3" s="5">
         <v>2</v>
@@ -6233,13 +6236,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="C14" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E14" s="5">
         <v>4</v>
@@ -6401,13 +6404,13 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C27" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="E27" s="5">
         <v>4</v>
@@ -6415,13 +6418,13 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C28" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="E28" s="5">
         <v>2</v>
@@ -6471,10 +6474,10 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="E32" s="5">
         <v>7</v>
@@ -6482,10 +6485,10 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="E33" s="5">
         <v>10</v>
@@ -6521,13 +6524,13 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
+        <v>576</v>
+      </c>
+      <c r="C38" t="s">
         <v>577</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" s="5" t="s">
         <v>578</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>579</v>
       </c>
       <c r="E38" s="5">
         <v>3</v>
@@ -6535,13 +6538,13 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="C39" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="E39" s="5">
         <v>5</v>
@@ -6759,13 +6762,13 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
+        <v>547</v>
+      </c>
+      <c r="C56" t="s">
         <v>548</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" s="5" t="s">
         <v>549</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>550</v>
       </c>
       <c r="E56" s="5">
         <v>3</v>
@@ -7655,13 +7658,13 @@
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="C121" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="E121" s="5">
         <v>2</v>
@@ -7795,13 +7798,13 @@
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C133" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E133" s="5">
         <v>3</v>
@@ -7977,13 +7980,13 @@
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B148" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C148" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E148" s="5">
         <v>2</v>
@@ -7991,13 +7994,13 @@
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
+        <v>573</v>
+      </c>
+      <c r="C149" t="s">
+        <v>575</v>
+      </c>
+      <c r="D149" s="5" t="s">
         <v>574</v>
-      </c>
-      <c r="C149" t="s">
-        <v>576</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>575</v>
       </c>
       <c r="E149" s="5">
         <v>2</v>
@@ -8159,13 +8162,13 @@
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B163" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C163" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="E163" s="5">
         <v>2</v>
@@ -8173,13 +8176,13 @@
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B164" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C164" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="E164" s="5">
         <v>2</v>
@@ -8187,13 +8190,13 @@
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B165" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C165" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E165" s="5">
         <v>3</v>
@@ -8201,7 +8204,7 @@
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B167" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="E167" s="5">
         <v>8</v>
@@ -8209,13 +8212,13 @@
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B169" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C169" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="E169" s="5">
         <v>3</v>
@@ -8223,13 +8226,13 @@
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B170" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C170" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="E170" s="5">
         <v>2</v>
@@ -8237,13 +8240,13 @@
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B171" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C171" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="E171" s="5">
         <v>4</v>
@@ -8251,13 +8254,13 @@
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B172" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C172" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="E172" s="5">
         <v>2</v>
@@ -8265,13 +8268,13 @@
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B173" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C173" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="E173" s="5">
         <v>3</v>
@@ -8279,13 +8282,13 @@
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B174" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="C174" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="E174" s="5">
         <v>3</v>
@@ -8293,13 +8296,13 @@
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B175" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C175" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E175" s="5">
         <v>1</v>
@@ -8307,13 +8310,13 @@
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B176" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C176" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E176" s="5">
         <v>2</v>
@@ -8321,13 +8324,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B177" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C177" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="E177" s="5">
         <v>3</v>
@@ -8335,13 +8338,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B178" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C178" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E178" s="5">
         <v>9</v>
@@ -8349,13 +8352,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B179" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C179" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E179" s="5">
         <v>3</v>
@@ -8363,13 +8366,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B180" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="C180" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="E180" s="5">
         <v>3</v>
@@ -8377,13 +8380,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B181" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C181" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="E181" s="5">
         <v>5</v>
@@ -8391,13 +8394,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B182" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C182" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E182" s="5">
         <v>8</v>
@@ -8405,13 +8408,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B183" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C183" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E183" s="5">
         <v>5</v>
@@ -8419,13 +8422,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B184" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C184" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E184" s="5">
         <v>3</v>
@@ -8433,13 +8436,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B185" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C185" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E185" s="5">
         <v>3</v>
@@ -8447,13 +8450,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B186" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C186" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E186" s="5">
         <v>7</v>
@@ -8550,13 +8553,13 @@
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B195" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C195" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="E195" s="5">
         <v>3</v>
@@ -8564,13 +8567,13 @@
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B196" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="C196" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="E196" s="5">
         <v>3</v>
@@ -8651,7 +8654,7 @@
         <v>441</v>
       </c>
       <c r="C202" t="s">
-        <v>443</v>
+        <v>1439</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>442</v>
@@ -8662,13 +8665,13 @@
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B203" t="s">
+        <v>443</v>
+      </c>
+      <c r="C203" t="s">
+        <v>445</v>
+      </c>
+      <c r="D203" s="5" t="s">
         <v>444</v>
-      </c>
-      <c r="C203" t="s">
-        <v>446</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>445</v>
       </c>
       <c r="E203" s="5">
         <v>2</v>
@@ -8676,10 +8679,10 @@
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B204" t="s">
+        <v>446</v>
+      </c>
+      <c r="C204" t="s">
         <v>447</v>
-      </c>
-      <c r="C204" t="s">
-        <v>448</v>
       </c>
       <c r="D204" s="5" t="s">
         <v>149</v>
@@ -8690,13 +8693,13 @@
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B205" t="s">
+        <v>448</v>
+      </c>
+      <c r="C205" t="s">
+        <v>450</v>
+      </c>
+      <c r="D205" s="5" t="s">
         <v>449</v>
-      </c>
-      <c r="C205" t="s">
-        <v>451</v>
-      </c>
-      <c r="D205" s="5" t="s">
-        <v>450</v>
       </c>
       <c r="E205" s="5">
         <v>6</v>
@@ -8704,13 +8707,13 @@
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B206" t="s">
+        <v>451</v>
+      </c>
+      <c r="C206" t="s">
         <v>452</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" s="5" t="s">
         <v>453</v>
-      </c>
-      <c r="D206" s="5" t="s">
-        <v>454</v>
       </c>
       <c r="E206" s="5">
         <v>3</v>
@@ -8718,13 +8721,13 @@
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B207" t="s">
+        <v>454</v>
+      </c>
+      <c r="C207" t="s">
+        <v>456</v>
+      </c>
+      <c r="D207" s="5" t="s">
         <v>455</v>
-      </c>
-      <c r="C207" t="s">
-        <v>457</v>
-      </c>
-      <c r="D207" s="5" t="s">
-        <v>456</v>
       </c>
       <c r="E207" s="5">
         <v>3</v>
@@ -8732,13 +8735,13 @@
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B208" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C208" t="s">
         <v>439</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E208" s="5">
         <v>1</v>
@@ -8746,13 +8749,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B210" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C210" t="s">
+        <v>555</v>
+      </c>
+      <c r="D210" s="5" t="s">
         <v>556</v>
-      </c>
-      <c r="D210" s="5" t="s">
-        <v>557</v>
       </c>
       <c r="E210" s="5">
         <v>3</v>
@@ -8760,13 +8763,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B211" t="s">
+        <v>558</v>
+      </c>
+      <c r="C211" t="s">
         <v>559</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" s="5" t="s">
         <v>560</v>
-      </c>
-      <c r="D211" s="5" t="s">
-        <v>561</v>
       </c>
       <c r="E211" s="5">
         <v>3</v>
@@ -8774,13 +8777,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B213" t="s">
+        <v>459</v>
+      </c>
+      <c r="C213" t="s">
+        <v>461</v>
+      </c>
+      <c r="D213" s="5" t="s">
         <v>460</v>
-      </c>
-      <c r="C213" t="s">
-        <v>462</v>
-      </c>
-      <c r="D213" s="5" t="s">
-        <v>461</v>
       </c>
       <c r="E213" s="5">
         <v>3</v>
@@ -8788,18 +8791,18 @@
     </row>
     <row r="215" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A215" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B216" t="s">
+        <v>463</v>
+      </c>
+      <c r="C216" t="s">
         <v>464</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="D216" s="5" t="s">
-        <v>466</v>
       </c>
       <c r="E216" s="5">
         <v>2</v>
@@ -8807,13 +8810,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B217" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="C217" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="E217" s="5">
         <v>1</v>
@@ -8821,13 +8824,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B218" t="s">
+        <v>466</v>
+      </c>
+      <c r="C218" t="s">
         <v>467</v>
       </c>
-      <c r="C218" t="s">
-        <v>468</v>
-      </c>
       <c r="D218" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E218" s="5">
         <v>2</v>
@@ -8835,10 +8838,10 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B219" t="s">
+        <v>468</v>
+      </c>
+      <c r="C219" t="s">
         <v>469</v>
-      </c>
-      <c r="C219" t="s">
-        <v>470</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>149</v>
@@ -8849,10 +8852,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B220" t="s">
+        <v>470</v>
+      </c>
+      <c r="C220" t="s">
         <v>471</v>
-      </c>
-      <c r="C220" t="s">
-        <v>472</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>14</v>
@@ -8863,13 +8866,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B221" t="s">
+        <v>472</v>
+      </c>
+      <c r="C221" t="s">
         <v>473</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>475</v>
       </c>
       <c r="E221" s="5">
         <v>2</v>
@@ -8877,13 +8880,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B222" t="s">
+        <v>475</v>
+      </c>
+      <c r="C222" t="s">
+        <v>477</v>
+      </c>
+      <c r="D222" s="5" t="s">
         <v>476</v>
-      </c>
-      <c r="C222" t="s">
-        <v>478</v>
-      </c>
-      <c r="D222" s="5" t="s">
-        <v>477</v>
       </c>
       <c r="E222" s="5">
         <v>3</v>
@@ -8891,13 +8894,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B223" t="s">
+        <v>478</v>
+      </c>
+      <c r="C223" t="s">
+        <v>480</v>
+      </c>
+      <c r="D223" s="5" t="s">
         <v>479</v>
-      </c>
-      <c r="C223" t="s">
-        <v>481</v>
-      </c>
-      <c r="D223" s="5" t="s">
-        <v>480</v>
       </c>
       <c r="E223" s="5">
         <v>3</v>
@@ -8905,13 +8908,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B224" t="s">
+        <v>481</v>
+      </c>
+      <c r="C224" t="s">
         <v>482</v>
       </c>
-      <c r="C224" t="s">
-        <v>483</v>
-      </c>
       <c r="D224" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E224" s="5">
         <v>2</v>
@@ -8919,10 +8922,10 @@
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B225" t="s">
+        <v>483</v>
+      </c>
+      <c r="C225" t="s">
         <v>484</v>
-      </c>
-      <c r="C225" t="s">
-        <v>485</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>435</v>
@@ -8933,13 +8936,13 @@
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B226" t="s">
+        <v>485</v>
+      </c>
+      <c r="C226" t="s">
         <v>486</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" s="5" t="s">
         <v>487</v>
-      </c>
-      <c r="D226" s="5" t="s">
-        <v>488</v>
       </c>
       <c r="E226" s="5">
         <v>1</v>
@@ -8947,13 +8950,13 @@
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B227" t="s">
+        <v>488</v>
+      </c>
+      <c r="C227" t="s">
+        <v>490</v>
+      </c>
+      <c r="D227" s="5" t="s">
         <v>489</v>
-      </c>
-      <c r="C227" t="s">
-        <v>491</v>
-      </c>
-      <c r="D227" s="5" t="s">
-        <v>490</v>
       </c>
       <c r="E227" s="5">
         <v>1</v>
@@ -8961,13 +8964,13 @@
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B228" t="s">
+        <v>491</v>
+      </c>
+      <c r="C228" t="s">
         <v>492</v>
       </c>
-      <c r="C228" t="s">
-        <v>493</v>
-      </c>
       <c r="D228" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E228" s="5">
         <v>2</v>
@@ -8975,13 +8978,13 @@
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B229" t="s">
+        <v>493</v>
+      </c>
+      <c r="C229" t="s">
+        <v>495</v>
+      </c>
+      <c r="D229" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="C229" t="s">
-        <v>496</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>495</v>
       </c>
       <c r="E229" s="5">
         <v>1</v>
@@ -8989,13 +8992,13 @@
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B230" t="s">
+        <v>496</v>
+      </c>
+      <c r="C230" t="s">
         <v>497</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="D230" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="E230" s="5">
         <v>1</v>
@@ -9003,10 +9006,10 @@
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B231" t="s">
+        <v>499</v>
+      </c>
+      <c r="C231" t="s">
         <v>500</v>
-      </c>
-      <c r="C231" t="s">
-        <v>501</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>431</v>
@@ -9017,13 +9020,13 @@
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B232" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C232" t="s">
+        <v>501</v>
+      </c>
+      <c r="D232" s="5" t="s">
         <v>502</v>
-      </c>
-      <c r="D232" s="5" t="s">
-        <v>503</v>
       </c>
       <c r="E232" s="5">
         <v>1</v>
@@ -9031,10 +9034,10 @@
     </row>
     <row r="233" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B233" t="s">
+        <v>504</v>
+      </c>
+      <c r="C233" t="s">
         <v>505</v>
-      </c>
-      <c r="C233" t="s">
-        <v>506</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>431</v>
@@ -9045,13 +9048,13 @@
     </row>
     <row r="234" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B234" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C234" t="s">
+        <v>506</v>
+      </c>
+      <c r="D234" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="D234" s="5" t="s">
-        <v>508</v>
       </c>
       <c r="E234" s="5">
         <v>1</v>
@@ -9059,13 +9062,13 @@
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B235" t="s">
+        <v>509</v>
+      </c>
+      <c r="C235" t="s">
+        <v>511</v>
+      </c>
+      <c r="D235" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="C235" t="s">
-        <v>512</v>
-      </c>
-      <c r="D235" s="5" t="s">
-        <v>511</v>
       </c>
       <c r="E235" s="5">
         <v>1</v>
@@ -9073,13 +9076,13 @@
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B237" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="C237" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="E237" s="5">
         <v>4</v>
@@ -9087,13 +9090,13 @@
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B238" t="s">
+        <v>550</v>
+      </c>
+      <c r="C238" t="s">
         <v>551</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" s="5" t="s">
         <v>552</v>
-      </c>
-      <c r="D238" s="5" t="s">
-        <v>553</v>
       </c>
       <c r="E238" s="5">
         <v>3</v>
@@ -9101,13 +9104,13 @@
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B239" t="s">
+        <v>553</v>
+      </c>
+      <c r="C239" t="s">
         <v>554</v>
       </c>
-      <c r="C239" t="s">
-        <v>555</v>
-      </c>
       <c r="D239" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E239" s="5">
         <v>3</v>
@@ -9115,13 +9118,13 @@
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B240" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C240" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E240" s="5">
         <v>12</v>
@@ -9129,13 +9132,13 @@
     </row>
     <row r="241" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B241" t="s">
+        <v>561</v>
+      </c>
+      <c r="C241" t="s">
         <v>562</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" s="5" t="s">
         <v>563</v>
-      </c>
-      <c r="D241" s="5" t="s">
-        <v>564</v>
       </c>
       <c r="E241" s="5">
         <v>3</v>
@@ -9143,13 +9146,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B243" t="s">
+        <v>564</v>
+      </c>
+      <c r="C243" t="s">
+        <v>566</v>
+      </c>
+      <c r="D243" s="5" t="s">
         <v>565</v>
-      </c>
-      <c r="C243" t="s">
-        <v>567</v>
-      </c>
-      <c r="D243" s="5" t="s">
-        <v>566</v>
       </c>
       <c r="E243" s="5">
         <v>6</v>
@@ -9157,13 +9160,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B244" t="s">
+        <v>512</v>
+      </c>
+      <c r="C244" t="s">
         <v>513</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" s="5" t="s">
         <v>514</v>
-      </c>
-      <c r="D244" s="5" t="s">
-        <v>515</v>
       </c>
       <c r="E244" s="5">
         <v>2</v>
@@ -9171,10 +9174,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B245" t="s">
+        <v>515</v>
+      </c>
+      <c r="C245" t="s">
         <v>516</v>
-      </c>
-      <c r="C245" t="s">
-        <v>517</v>
       </c>
       <c r="D245" s="5" t="s">
         <v>14</v>
@@ -9185,18 +9188,18 @@
     </row>
     <row r="247" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A247" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B248" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C248" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E248" s="5">
         <v>2</v>
@@ -9204,13 +9207,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B249" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C249" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E249" s="5">
         <v>3</v>
@@ -9218,13 +9221,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B250" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C250" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E250" s="5">
         <v>2</v>
@@ -9232,13 +9235,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B251" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C251" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E251" s="5">
         <v>3</v>
@@ -9246,13 +9249,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B252" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C252" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="E252" s="5">
         <v>2</v>
@@ -9260,13 +9263,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B253" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C253" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E253" s="5">
         <v>3</v>
@@ -9274,13 +9277,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B254" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C254" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E254" s="5">
         <v>3</v>
@@ -9302,13 +9305,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B257" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C257" t="s">
+        <v>579</v>
+      </c>
+      <c r="D257" s="5" t="s">
         <v>580</v>
-      </c>
-      <c r="D257" s="5" t="s">
-        <v>581</v>
       </c>
       <c r="E257" s="5">
         <v>2</v>
@@ -9330,18 +9333,18 @@
     </row>
     <row r="260" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A260" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B261" t="s">
+        <v>518</v>
+      </c>
+      <c r="C261" t="s">
+        <v>520</v>
+      </c>
+      <c r="D261" s="5" t="s">
         <v>519</v>
-      </c>
-      <c r="C261" t="s">
-        <v>521</v>
-      </c>
-      <c r="D261" s="5" t="s">
-        <v>520</v>
       </c>
       <c r="E261" s="5">
         <v>1</v>
@@ -9349,13 +9352,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B262" t="s">
+        <v>521</v>
+      </c>
+      <c r="C262" t="s">
+        <v>523</v>
+      </c>
+      <c r="D262" s="5" t="s">
         <v>522</v>
-      </c>
-      <c r="C262" t="s">
-        <v>524</v>
-      </c>
-      <c r="D262" s="5" t="s">
-        <v>523</v>
       </c>
       <c r="E262" s="5">
         <v>3</v>
@@ -9363,13 +9366,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B263" t="s">
+        <v>524</v>
+      </c>
+      <c r="C263" t="s">
+        <v>526</v>
+      </c>
+      <c r="D263" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="C263" t="s">
-        <v>527</v>
-      </c>
-      <c r="D263" s="5" t="s">
-        <v>526</v>
       </c>
       <c r="E263" s="5">
         <v>3</v>
@@ -9377,13 +9380,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B264" t="s">
+        <v>527</v>
+      </c>
+      <c r="C264" t="s">
         <v>528</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" s="5" t="s">
         <v>529</v>
-      </c>
-      <c r="D264" s="5" t="s">
-        <v>530</v>
       </c>
       <c r="E264" s="5">
         <v>6</v>
@@ -9391,13 +9394,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B265" t="s">
+        <v>530</v>
+      </c>
+      <c r="C265" t="s">
         <v>531</v>
       </c>
-      <c r="C265" t="s">
+      <c r="D265" s="5" t="s">
         <v>532</v>
-      </c>
-      <c r="D265" s="5" t="s">
-        <v>533</v>
       </c>
       <c r="E265" s="5">
         <v>3</v>
@@ -9405,13 +9408,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B266" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C266" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="E266" s="5">
         <v>2</v>
@@ -9419,13 +9422,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B267" t="s">
+        <v>536</v>
+      </c>
+      <c r="C267" t="s">
         <v>537</v>
       </c>
-      <c r="C267" t="s">
+      <c r="D267" s="5" t="s">
         <v>538</v>
-      </c>
-      <c r="D267" s="5" t="s">
-        <v>539</v>
       </c>
       <c r="E267" s="5">
         <v>2</v>
@@ -9433,13 +9436,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B268" t="s">
+        <v>539</v>
+      </c>
+      <c r="C268" t="s">
         <v>540</v>
       </c>
-      <c r="C268" t="s">
+      <c r="D268" s="5" t="s">
         <v>541</v>
-      </c>
-      <c r="D268" s="5" t="s">
-        <v>542</v>
       </c>
       <c r="E268" s="5">
         <v>3</v>
@@ -9447,13 +9450,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B269" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C269" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E269" s="5">
         <v>5</v>
@@ -9461,13 +9464,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B270" t="s">
+        <v>542</v>
+      </c>
+      <c r="C270" t="s">
         <v>543</v>
       </c>
-      <c r="C270" t="s">
+      <c r="D270" s="5" t="s">
         <v>544</v>
-      </c>
-      <c r="D270" s="5" t="s">
-        <v>545</v>
       </c>
       <c r="E270" s="5">
         <v>1</v>
@@ -9475,13 +9478,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B271" t="s">
+        <v>545</v>
+      </c>
+      <c r="C271" t="s">
         <v>546</v>
       </c>
-      <c r="C271" t="s">
-        <v>547</v>
-      </c>
       <c r="D271" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E271" s="5">
         <v>1</v>
@@ -9489,13 +9492,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B272" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C272" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E272" s="5">
         <v>5</v>
@@ -9503,13 +9506,13 @@
     </row>
     <row r="274" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B274" t="s">
+        <v>609</v>
+      </c>
+      <c r="C274" t="s">
         <v>610</v>
       </c>
-      <c r="C274" t="s">
+      <c r="D274" s="5" t="s">
         <v>611</v>
-      </c>
-      <c r="D274" s="5" t="s">
-        <v>612</v>
       </c>
       <c r="E274" s="5">
         <v>3</v>
@@ -9517,13 +9520,13 @@
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B275" t="s">
+        <v>612</v>
+      </c>
+      <c r="C275" t="s">
         <v>613</v>
       </c>
-      <c r="C275" t="s">
-        <v>614</v>
-      </c>
       <c r="D275" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E275" s="5">
         <v>3</v>
@@ -9531,13 +9534,13 @@
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B276" t="s">
+        <v>614</v>
+      </c>
+      <c r="C276" t="s">
         <v>615</v>
       </c>
-      <c r="C276" t="s">
+      <c r="D276" s="5" t="s">
         <v>616</v>
-      </c>
-      <c r="D276" s="5" t="s">
-        <v>617</v>
       </c>
       <c r="E276" s="5">
         <v>2</v>
@@ -9545,13 +9548,13 @@
     </row>
     <row r="277" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B277" t="s">
+        <v>617</v>
+      </c>
+      <c r="C277" t="s">
+        <v>619</v>
+      </c>
+      <c r="D277" s="5" t="s">
         <v>618</v>
-      </c>
-      <c r="C277" t="s">
-        <v>620</v>
-      </c>
-      <c r="D277" s="5" t="s">
-        <v>619</v>
       </c>
       <c r="E277" s="5">
         <v>2</v>
@@ -9559,13 +9562,13 @@
     </row>
     <row r="278" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B278" t="s">
+        <v>620</v>
+      </c>
+      <c r="C278" t="s">
+        <v>619</v>
+      </c>
+      <c r="D278" s="5" t="s">
         <v>621</v>
-      </c>
-      <c r="C278" t="s">
-        <v>620</v>
-      </c>
-      <c r="D278" s="5" t="s">
-        <v>622</v>
       </c>
       <c r="E278" s="5">
         <v>3</v>
@@ -9573,13 +9576,13 @@
     </row>
     <row r="279" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B279" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="C279" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E279" s="5">
         <v>2</v>
@@ -9587,13 +9590,13 @@
     </row>
     <row r="280" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B280" t="s">
+        <v>622</v>
+      </c>
+      <c r="C280" t="s">
         <v>623</v>
       </c>
-      <c r="C280" t="s">
-        <v>624</v>
-      </c>
       <c r="D280" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E280" s="5">
         <v>3</v>
@@ -9601,13 +9604,13 @@
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B281" t="s">
+        <v>624</v>
+      </c>
+      <c r="C281" t="s">
         <v>625</v>
       </c>
-      <c r="C281" t="s">
-        <v>626</v>
-      </c>
       <c r="D281" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E281" s="5">
         <v>2</v>
@@ -9615,13 +9618,13 @@
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B282" t="s">
+        <v>627</v>
+      </c>
+      <c r="C282" t="s">
+        <v>626</v>
+      </c>
+      <c r="D282" s="5" t="s">
         <v>628</v>
-      </c>
-      <c r="C282" t="s">
-        <v>627</v>
-      </c>
-      <c r="D282" s="5" t="s">
-        <v>629</v>
       </c>
       <c r="E282" s="5">
         <v>5</v>
@@ -9629,13 +9632,13 @@
     </row>
     <row r="283" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B283" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C283" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E283" s="5">
         <v>3</v>
@@ -9643,13 +9646,13 @@
     </row>
     <row r="284" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B284" t="s">
+        <v>631</v>
+      </c>
+      <c r="C284" t="s">
         <v>632</v>
       </c>
-      <c r="C284" t="s">
+      <c r="D284" s="5" t="s">
         <v>633</v>
-      </c>
-      <c r="D284" s="5" t="s">
-        <v>634</v>
       </c>
       <c r="E284" s="5">
         <v>2</v>
@@ -9657,13 +9660,13 @@
     </row>
     <row r="285" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B285" t="s">
+        <v>606</v>
+      </c>
+      <c r="C285" t="s">
         <v>607</v>
       </c>
-      <c r="C285" t="s">
+      <c r="D285" s="5" t="s">
         <v>608</v>
-      </c>
-      <c r="D285" s="5" t="s">
-        <v>609</v>
       </c>
       <c r="E285" s="5">
         <v>5</v>
@@ -9671,13 +9674,13 @@
     </row>
     <row r="286" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B286" t="s">
+        <v>603</v>
+      </c>
+      <c r="C286" t="s">
         <v>604</v>
       </c>
-      <c r="C286" t="s">
+      <c r="D286" s="5" t="s">
         <v>605</v>
-      </c>
-      <c r="D286" s="5" t="s">
-        <v>606</v>
       </c>
       <c r="E286" s="5">
         <v>3</v>
@@ -9685,13 +9688,13 @@
     </row>
     <row r="288" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B288" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="C288" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="E288" s="5">
         <v>28</v>
@@ -9699,13 +9702,13 @@
     </row>
     <row r="290" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B290" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C290" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E290" s="5">
         <v>2</v>
@@ -9713,13 +9716,13 @@
     </row>
     <row r="291" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B291" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="C291" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="E291" s="5">
         <v>15</v>
@@ -9727,13 +9730,13 @@
     </row>
     <row r="293" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B293" t="s">
+        <v>636</v>
+      </c>
+      <c r="C293" t="s">
         <v>637</v>
       </c>
-      <c r="C293" t="s">
+      <c r="D293" s="5" t="s">
         <v>638</v>
-      </c>
-      <c r="D293" s="5" t="s">
-        <v>639</v>
       </c>
       <c r="E293" s="5">
         <v>1</v>
@@ -9741,13 +9744,13 @@
     </row>
     <row r="294" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B294" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C294" t="s">
+        <v>640</v>
+      </c>
+      <c r="D294" s="5" t="s">
         <v>641</v>
-      </c>
-      <c r="D294" s="5" t="s">
-        <v>642</v>
       </c>
       <c r="E294" s="5">
         <v>3</v>
@@ -9755,13 +9758,13 @@
     </row>
     <row r="295" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B295" t="s">
+        <v>639</v>
+      </c>
+      <c r="C295" t="s">
         <v>640</v>
       </c>
-      <c r="C295" t="s">
-        <v>641</v>
-      </c>
       <c r="D295" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E295" s="5">
         <v>3</v>
@@ -9769,13 +9772,13 @@
     </row>
     <row r="296" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B296" t="s">
+        <v>643</v>
+      </c>
+      <c r="C296" t="s">
         <v>644</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="D296" s="5" t="s">
-        <v>646</v>
       </c>
       <c r="E296" s="5">
         <v>2</v>
@@ -9783,13 +9786,13 @@
     </row>
     <row r="297" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B297" t="s">
+        <v>646</v>
+      </c>
+      <c r="C297" t="s">
         <v>647</v>
       </c>
-      <c r="C297" t="s">
+      <c r="D297" s="5" t="s">
         <v>648</v>
-      </c>
-      <c r="D297" s="5" t="s">
-        <v>649</v>
       </c>
       <c r="E297" s="5">
         <v>2</v>
@@ -9797,13 +9800,13 @@
     </row>
     <row r="299" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B299" t="s">
+        <v>649</v>
+      </c>
+      <c r="C299" t="s">
         <v>650</v>
       </c>
-      <c r="C299" t="s">
+      <c r="D299" s="5" t="s">
         <v>651</v>
-      </c>
-      <c r="D299" s="5" t="s">
-        <v>652</v>
       </c>
       <c r="E299" s="5">
         <v>3</v>
@@ -9811,13 +9814,13 @@
     </row>
     <row r="300" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B300" t="s">
+        <v>652</v>
+      </c>
+      <c r="C300" t="s">
         <v>653</v>
       </c>
-      <c r="C300" t="s">
+      <c r="D300" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="D300" s="5" t="s">
-        <v>655</v>
       </c>
       <c r="E300" s="5">
         <v>2</v>
@@ -9825,13 +9828,13 @@
     </row>
     <row r="301" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B301" t="s">
+        <v>655</v>
+      </c>
+      <c r="C301" t="s">
         <v>656</v>
       </c>
-      <c r="C301" t="s">
+      <c r="D301" s="5" t="s">
         <v>657</v>
-      </c>
-      <c r="D301" s="5" t="s">
-        <v>658</v>
       </c>
       <c r="E301" s="5">
         <v>2</v>
@@ -9839,13 +9842,13 @@
     </row>
     <row r="302" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B302" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C302" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E302" s="5">
         <v>2</v>
@@ -9853,13 +9856,13 @@
     </row>
     <row r="303" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B303" t="s">
+        <v>659</v>
+      </c>
+      <c r="C303" t="s">
         <v>660</v>
       </c>
-      <c r="C303" t="s">
+      <c r="D303" s="5" t="s">
         <v>661</v>
-      </c>
-      <c r="D303" s="5" t="s">
-        <v>662</v>
       </c>
       <c r="E303" s="5">
         <v>2</v>
@@ -9867,13 +9870,13 @@
     </row>
     <row r="304" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B304" t="s">
+        <v>662</v>
+      </c>
+      <c r="C304" t="s">
         <v>663</v>
       </c>
-      <c r="C304" t="s">
+      <c r="D304" s="5" t="s">
         <v>664</v>
-      </c>
-      <c r="D304" s="5" t="s">
-        <v>665</v>
       </c>
       <c r="E304" s="5">
         <v>3</v>
@@ -9881,13 +9884,13 @@
     </row>
     <row r="305" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B305" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C305" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="E305" s="5">
         <v>2</v>
@@ -9895,13 +9898,13 @@
     </row>
     <row r="306" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B306" t="s">
+        <v>665</v>
+      </c>
+      <c r="C306" t="s">
         <v>666</v>
       </c>
-      <c r="C306" t="s">
+      <c r="D306" s="5" t="s">
         <v>667</v>
-      </c>
-      <c r="D306" s="5" t="s">
-        <v>668</v>
       </c>
       <c r="E306" s="5">
         <v>1</v>
@@ -9909,13 +9912,13 @@
     </row>
     <row r="307" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B307" t="s">
+        <v>668</v>
+      </c>
+      <c r="C307" t="s">
         <v>669</v>
       </c>
-      <c r="C307" t="s">
-        <v>670</v>
-      </c>
       <c r="D307" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E307" s="5">
         <v>3</v>
@@ -9923,13 +9926,13 @@
     </row>
     <row r="308" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B308" t="s">
+        <v>670</v>
+      </c>
+      <c r="C308" t="s">
         <v>671</v>
       </c>
-      <c r="C308" t="s">
+      <c r="D308" s="5" t="s">
         <v>672</v>
-      </c>
-      <c r="D308" s="5" t="s">
-        <v>673</v>
       </c>
       <c r="E308" s="5">
         <v>2</v>
@@ -9937,13 +9940,13 @@
     </row>
     <row r="309" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B309" t="s">
+        <v>673</v>
+      </c>
+      <c r="C309" t="s">
         <v>674</v>
       </c>
-      <c r="C309" t="s">
+      <c r="D309" s="5" t="s">
         <v>675</v>
-      </c>
-      <c r="D309" s="5" t="s">
-        <v>676</v>
       </c>
       <c r="E309" s="5">
         <v>6</v>
@@ -9951,13 +9954,13 @@
     </row>
     <row r="310" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B310" t="s">
+        <v>600</v>
+      </c>
+      <c r="C310" t="s">
         <v>601</v>
       </c>
-      <c r="C310" t="s">
+      <c r="D310" s="5" t="s">
         <v>602</v>
-      </c>
-      <c r="D310" s="5" t="s">
-        <v>603</v>
       </c>
       <c r="E310" s="5">
         <v>4</v>
@@ -9965,13 +9968,13 @@
     </row>
     <row r="311" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B311" t="s">
+        <v>676</v>
+      </c>
+      <c r="C311" t="s">
         <v>677</v>
       </c>
-      <c r="C311" t="s">
-        <v>678</v>
-      </c>
       <c r="D311" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E311" s="5">
         <v>2</v>
@@ -9979,13 +9982,13 @@
     </row>
     <row r="312" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B312" t="s">
+        <v>678</v>
+      </c>
+      <c r="C312" t="s">
         <v>679</v>
       </c>
-      <c r="C312" t="s">
+      <c r="D312" s="5" t="s">
         <v>680</v>
-      </c>
-      <c r="D312" s="5" t="s">
-        <v>681</v>
       </c>
       <c r="E312" s="5">
         <v>5</v>
@@ -9993,13 +9996,13 @@
     </row>
     <row r="313" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B313" t="s">
+        <v>681</v>
+      </c>
+      <c r="C313" t="s">
         <v>682</v>
       </c>
-      <c r="C313" t="s">
+      <c r="D313" s="5" t="s">
         <v>683</v>
-      </c>
-      <c r="D313" s="5" t="s">
-        <v>684</v>
       </c>
       <c r="E313" s="5">
         <v>2</v>
@@ -10007,13 +10010,13 @@
     </row>
     <row r="314" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B314" t="s">
+        <v>684</v>
+      </c>
+      <c r="C314" t="s">
         <v>685</v>
       </c>
-      <c r="C314" t="s">
+      <c r="D314" s="5" t="s">
         <v>686</v>
-      </c>
-      <c r="D314" s="5" t="s">
-        <v>687</v>
       </c>
       <c r="E314" s="5">
         <v>3</v>
@@ -10021,13 +10024,13 @@
     </row>
     <row r="315" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B315" t="s">
+        <v>687</v>
+      </c>
+      <c r="C315" t="s">
         <v>688</v>
       </c>
-      <c r="C315" t="s">
-        <v>689</v>
-      </c>
       <c r="D315" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E315" s="5">
         <v>2</v>
@@ -10035,13 +10038,13 @@
     </row>
     <row r="316" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B316" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C316" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="E316" s="5">
         <v>8</v>
@@ -10049,13 +10052,13 @@
     </row>
     <row r="317" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B317" t="s">
+        <v>689</v>
+      </c>
+      <c r="C317" t="s">
         <v>690</v>
       </c>
-      <c r="C317" t="s">
-        <v>691</v>
-      </c>
       <c r="D317" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E317" s="5">
         <v>3</v>
@@ -10063,13 +10066,13 @@
     </row>
     <row r="318" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B318" t="s">
+        <v>691</v>
+      </c>
+      <c r="C318" t="s">
         <v>692</v>
       </c>
-      <c r="C318" t="s">
+      <c r="D318" s="5" t="s">
         <v>693</v>
-      </c>
-      <c r="D318" s="5" t="s">
-        <v>694</v>
       </c>
       <c r="E318" s="5">
         <v>3</v>
@@ -10077,13 +10080,13 @@
     </row>
     <row r="319" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B319" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C319" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E319" s="5">
         <v>3</v>
@@ -10091,13 +10094,13 @@
     </row>
     <row r="320" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B320" t="s">
+        <v>694</v>
+      </c>
+      <c r="C320" t="s">
         <v>695</v>
       </c>
-      <c r="C320" t="s">
-        <v>696</v>
-      </c>
       <c r="D320" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E320" s="5">
         <v>5</v>
@@ -10105,13 +10108,13 @@
     </row>
     <row r="321" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B321" t="s">
+        <v>696</v>
+      </c>
+      <c r="C321" t="s">
         <v>697</v>
       </c>
-      <c r="C321" t="s">
+      <c r="D321" s="5" t="s">
         <v>698</v>
-      </c>
-      <c r="D321" s="5" t="s">
-        <v>699</v>
       </c>
       <c r="E321" s="5">
         <v>3</v>
@@ -10119,13 +10122,13 @@
     </row>
     <row r="322" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B322" t="s">
+        <v>701</v>
+      </c>
+      <c r="C322" t="s">
         <v>702</v>
       </c>
-      <c r="C322" t="s">
+      <c r="D322" s="5" t="s">
         <v>703</v>
-      </c>
-      <c r="D322" s="5" t="s">
-        <v>704</v>
       </c>
       <c r="E322" s="5">
         <v>4</v>
@@ -10133,13 +10136,13 @@
     </row>
     <row r="323" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B323" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C323" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D323" s="5" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E323" s="5">
         <v>3</v>
@@ -10147,13 +10150,13 @@
     </row>
     <row r="324" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B324" t="s">
+        <v>699</v>
+      </c>
+      <c r="C324" t="s">
         <v>700</v>
       </c>
-      <c r="C324" t="s">
-        <v>701</v>
-      </c>
       <c r="D324" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E324" s="5">
         <v>7</v>
@@ -10161,13 +10164,13 @@
     </row>
     <row r="325" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B325" t="s">
+        <v>597</v>
+      </c>
+      <c r="C325" t="s">
         <v>598</v>
       </c>
-      <c r="C325" t="s">
+      <c r="D325" s="5" t="s">
         <v>599</v>
-      </c>
-      <c r="D325" s="5" t="s">
-        <v>600</v>
       </c>
       <c r="E325" s="5">
         <v>5</v>
@@ -10175,13 +10178,13 @@
     </row>
     <row r="326" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B326" t="s">
+        <v>705</v>
+      </c>
+      <c r="C326" t="s">
         <v>706</v>
       </c>
-      <c r="C326" t="s">
-        <v>707</v>
-      </c>
       <c r="D326" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E326" s="5">
         <v>4</v>
@@ -10189,13 +10192,13 @@
     </row>
     <row r="327" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B327" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C327" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D327" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E327" s="5">
         <v>4</v>
@@ -10203,13 +10206,13 @@
     </row>
     <row r="328" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B328" t="s">
+        <v>709</v>
+      </c>
+      <c r="C328" t="s">
         <v>710</v>
       </c>
-      <c r="C328" t="s">
+      <c r="D328" s="5" t="s">
         <v>711</v>
-      </c>
-      <c r="D328" s="5" t="s">
-        <v>712</v>
       </c>
       <c r="E328" s="5">
         <v>3</v>
@@ -10217,13 +10220,13 @@
     </row>
     <row r="329" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B329" t="s">
+        <v>712</v>
+      </c>
+      <c r="C329" t="s">
         <v>713</v>
       </c>
-      <c r="C329" t="s">
+      <c r="D329" s="5" t="s">
         <v>714</v>
-      </c>
-      <c r="D329" s="5" t="s">
-        <v>715</v>
       </c>
       <c r="E329" s="5">
         <v>3</v>
@@ -10231,13 +10234,13 @@
     </row>
     <row r="330" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B330" t="s">
+        <v>715</v>
+      </c>
+      <c r="C330" t="s">
         <v>716</v>
       </c>
-      <c r="C330" t="s">
-        <v>717</v>
-      </c>
       <c r="D330" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E330" s="5">
         <v>2</v>
@@ -10245,13 +10248,13 @@
     </row>
     <row r="331" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B331" t="s">
+        <v>717</v>
+      </c>
+      <c r="C331" t="s">
         <v>718</v>
       </c>
-      <c r="C331" t="s">
-        <v>719</v>
-      </c>
       <c r="D331" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E331" s="5">
         <v>2</v>
@@ -10259,13 +10262,13 @@
     </row>
     <row r="332" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B332" t="s">
+        <v>719</v>
+      </c>
+      <c r="C332" t="s">
         <v>720</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" s="5" t="s">
         <v>721</v>
-      </c>
-      <c r="D332" s="5" t="s">
-        <v>722</v>
       </c>
       <c r="E332" s="5">
         <v>2</v>
@@ -10273,13 +10276,13 @@
     </row>
     <row r="333" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B333" t="s">
+        <v>722</v>
+      </c>
+      <c r="C333" t="s">
         <v>723</v>
       </c>
-      <c r="C333" t="s">
-        <v>724</v>
-      </c>
       <c r="D333" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E333" s="5">
         <v>2</v>
@@ -10287,13 +10290,13 @@
     </row>
     <row r="334" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B334" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C334" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D334" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E334" s="5">
         <v>5</v>
@@ -10301,13 +10304,13 @@
     </row>
     <row r="335" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B335" t="s">
+        <v>727</v>
+      </c>
+      <c r="C335" t="s">
         <v>728</v>
       </c>
-      <c r="C335" t="s">
+      <c r="D335" s="5" t="s">
         <v>729</v>
-      </c>
-      <c r="D335" s="5" t="s">
-        <v>730</v>
       </c>
       <c r="E335" s="5">
         <v>2</v>
@@ -10315,13 +10318,13 @@
     </row>
     <row r="336" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B336" t="s">
+        <v>730</v>
+      </c>
+      <c r="C336" t="s">
         <v>731</v>
       </c>
-      <c r="C336" t="s">
+      <c r="D336" s="5" t="s">
         <v>732</v>
-      </c>
-      <c r="D336" s="5" t="s">
-        <v>733</v>
       </c>
       <c r="E336" s="5">
         <v>2</v>
@@ -10329,13 +10332,13 @@
     </row>
     <row r="337" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B337" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C337" t="s">
+        <v>733</v>
+      </c>
+      <c r="D337" s="5" t="s">
         <v>734</v>
-      </c>
-      <c r="D337" s="5" t="s">
-        <v>735</v>
       </c>
       <c r="E337" s="5">
         <v>5</v>
@@ -10343,13 +10346,13 @@
     </row>
     <row r="338" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B338" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C338" t="s">
+        <v>733</v>
+      </c>
+      <c r="D338" s="5" t="s">
         <v>734</v>
-      </c>
-      <c r="D338" s="5" t="s">
-        <v>735</v>
       </c>
       <c r="E338" s="5">
         <v>2</v>
@@ -10357,13 +10360,13 @@
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B339" t="s">
+        <v>737</v>
+      </c>
+      <c r="C339" t="s">
         <v>738</v>
       </c>
-      <c r="C339" t="s">
+      <c r="D339" s="5" t="s">
         <v>739</v>
-      </c>
-      <c r="D339" s="5" t="s">
-        <v>740</v>
       </c>
       <c r="E339" s="5">
         <v>3</v>
@@ -10371,13 +10374,13 @@
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B340" t="s">
+        <v>740</v>
+      </c>
+      <c r="C340" t="s">
         <v>741</v>
       </c>
-      <c r="C340" t="s">
-        <v>742</v>
-      </c>
       <c r="D340" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E340" s="5">
         <v>2</v>
@@ -10385,13 +10388,13 @@
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B341" t="s">
+        <v>742</v>
+      </c>
+      <c r="C341" t="s">
         <v>743</v>
       </c>
-      <c r="C341" t="s">
-        <v>744</v>
-      </c>
       <c r="D341" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E341" s="5">
         <v>2</v>
@@ -10399,13 +10402,13 @@
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B342" t="s">
+        <v>744</v>
+      </c>
+      <c r="C342" t="s">
         <v>745</v>
       </c>
-      <c r="C342" t="s">
-        <v>746</v>
-      </c>
       <c r="D342" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E342" s="5">
         <v>3</v>
@@ -10413,13 +10416,13 @@
     </row>
     <row r="343" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B343" t="s">
+        <v>746</v>
+      </c>
+      <c r="C343" t="s">
         <v>747</v>
       </c>
-      <c r="C343" t="s">
-        <v>748</v>
-      </c>
       <c r="D343" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E343" s="5">
         <v>1</v>
@@ -10427,13 +10430,13 @@
     </row>
     <row r="344" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B344" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="C344" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D344" s="5" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="E344" s="5">
         <v>10</v>
@@ -10441,13 +10444,13 @@
     </row>
     <row r="345" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B345" t="s">
+        <v>748</v>
+      </c>
+      <c r="C345" t="s">
         <v>749</v>
       </c>
-      <c r="C345" t="s">
+      <c r="D345" s="5" t="s">
         <v>750</v>
-      </c>
-      <c r="D345" s="5" t="s">
-        <v>751</v>
       </c>
       <c r="E345" s="5">
         <v>3</v>
@@ -10455,13 +10458,13 @@
     </row>
     <row r="346" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B346" t="s">
+        <v>751</v>
+      </c>
+      <c r="C346" t="s">
+        <v>753</v>
+      </c>
+      <c r="D346" s="5" t="s">
         <v>752</v>
-      </c>
-      <c r="C346" t="s">
-        <v>754</v>
-      </c>
-      <c r="D346" s="5" t="s">
-        <v>753</v>
       </c>
       <c r="E346" s="5">
         <v>2</v>
@@ -10469,13 +10472,13 @@
     </row>
     <row r="347" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B347" t="s">
+        <v>754</v>
+      </c>
+      <c r="C347" t="s">
         <v>755</v>
       </c>
-      <c r="C347" t="s">
+      <c r="D347" s="5" t="s">
         <v>756</v>
-      </c>
-      <c r="D347" s="5" t="s">
-        <v>757</v>
       </c>
       <c r="E347" s="5">
         <v>6</v>
@@ -10483,13 +10486,13 @@
     </row>
     <row r="348" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B348" t="s">
+        <v>757</v>
+      </c>
+      <c r="C348" t="s">
         <v>758</v>
       </c>
-      <c r="C348" t="s">
-        <v>759</v>
-      </c>
       <c r="D348" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E348" s="5">
         <v>1</v>
@@ -10497,13 +10500,13 @@
     </row>
     <row r="349" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B349" t="s">
+        <v>759</v>
+      </c>
+      <c r="C349" t="s">
         <v>760</v>
       </c>
-      <c r="C349" t="s">
+      <c r="D349" s="5" t="s">
         <v>761</v>
-      </c>
-      <c r="D349" s="5" t="s">
-        <v>762</v>
       </c>
       <c r="E349" s="5">
         <v>3</v>
@@ -10511,13 +10514,13 @@
     </row>
     <row r="350" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B350" t="s">
+        <v>762</v>
+      </c>
+      <c r="C350" t="s">
         <v>763</v>
       </c>
-      <c r="C350" t="s">
-        <v>764</v>
-      </c>
       <c r="D350" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E350" s="5">
         <v>3</v>
@@ -10525,13 +10528,13 @@
     </row>
     <row r="351" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B351" t="s">
+        <v>764</v>
+      </c>
+      <c r="C351" t="s">
         <v>765</v>
       </c>
-      <c r="C351" t="s">
+      <c r="D351" s="5" t="s">
         <v>766</v>
-      </c>
-      <c r="D351" s="5" t="s">
-        <v>767</v>
       </c>
       <c r="E351" s="5">
         <v>2</v>
@@ -10539,13 +10542,13 @@
     </row>
     <row r="352" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B352" t="s">
+        <v>767</v>
+      </c>
+      <c r="C352" t="s">
         <v>768</v>
       </c>
-      <c r="C352" t="s">
+      <c r="D352" s="5" t="s">
         <v>769</v>
-      </c>
-      <c r="D352" s="5" t="s">
-        <v>770</v>
       </c>
       <c r="E352" s="5">
         <v>3</v>
@@ -10553,13 +10556,13 @@
     </row>
     <row r="353" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B353" t="s">
+        <v>770</v>
+      </c>
+      <c r="C353" t="s">
         <v>771</v>
       </c>
-      <c r="C353" t="s">
+      <c r="D353" s="5" t="s">
         <v>772</v>
-      </c>
-      <c r="D353" s="5" t="s">
-        <v>773</v>
       </c>
       <c r="E353" s="5">
         <v>3</v>
@@ -10567,13 +10570,13 @@
     </row>
     <row r="355" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B355" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="C355" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="D355" s="5" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="E355" s="5">
         <v>20</v>
@@ -10581,13 +10584,13 @@
     </row>
     <row r="356" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B356" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C356" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D356" s="5" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E356" s="5">
         <v>3</v>
@@ -10595,13 +10598,13 @@
     </row>
     <row r="357" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B357" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C357" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D357" s="5" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E357" s="5">
         <v>3</v>
@@ -10609,13 +10612,13 @@
     </row>
     <row r="358" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B358" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C358" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D358" s="5" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E358" s="5">
         <v>3</v>
@@ -10623,13 +10626,13 @@
     </row>
     <row r="359" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B359" t="s">
+        <v>775</v>
+      </c>
+      <c r="C359" t="s">
         <v>776</v>
       </c>
-      <c r="C359" t="s">
+      <c r="D359" s="5" t="s">
         <v>777</v>
-      </c>
-      <c r="D359" s="5" t="s">
-        <v>778</v>
       </c>
       <c r="E359" s="5">
         <v>2</v>
@@ -10637,13 +10640,13 @@
     </row>
     <row r="360" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B360" t="s">
+        <v>778</v>
+      </c>
+      <c r="C360" t="s">
         <v>779</v>
       </c>
-      <c r="C360" t="s">
+      <c r="D360" s="5" t="s">
         <v>780</v>
-      </c>
-      <c r="D360" s="5" t="s">
-        <v>781</v>
       </c>
       <c r="E360" s="5">
         <v>2</v>
@@ -10651,13 +10654,13 @@
     </row>
     <row r="361" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B361" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C361" t="s">
+        <v>779</v>
+      </c>
+      <c r="D361" s="5" t="s">
         <v>780</v>
-      </c>
-      <c r="D361" s="5" t="s">
-        <v>781</v>
       </c>
       <c r="E361" s="5">
         <v>6</v>
@@ -10665,13 +10668,13 @@
     </row>
     <row r="362" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B362" t="s">
+        <v>782</v>
+      </c>
+      <c r="C362" t="s">
         <v>783</v>
       </c>
-      <c r="C362" t="s">
+      <c r="D362" s="5" t="s">
         <v>784</v>
-      </c>
-      <c r="D362" s="5" t="s">
-        <v>785</v>
       </c>
       <c r="E362" s="5">
         <v>3</v>
@@ -10679,13 +10682,13 @@
     </row>
     <row r="363" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B363" t="s">
+        <v>773</v>
+      </c>
+      <c r="C363" t="s">
         <v>774</v>
       </c>
-      <c r="C363" t="s">
-        <v>775</v>
-      </c>
       <c r="D363" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E363" s="5">
         <v>8</v>
@@ -10693,13 +10696,13 @@
     </row>
     <row r="364" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B364" t="s">
+        <v>785</v>
+      </c>
+      <c r="C364" t="s">
         <v>786</v>
       </c>
-      <c r="C364" t="s">
+      <c r="D364" s="5" t="s">
         <v>787</v>
-      </c>
-      <c r="D364" s="5" t="s">
-        <v>788</v>
       </c>
       <c r="E364" s="5">
         <v>3</v>
@@ -10707,13 +10710,13 @@
     </row>
     <row r="365" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B365" t="s">
+        <v>788</v>
+      </c>
+      <c r="C365" t="s">
         <v>789</v>
       </c>
-      <c r="C365" t="s">
+      <c r="D365" s="5" t="s">
         <v>790</v>
-      </c>
-      <c r="D365" s="5" t="s">
-        <v>791</v>
       </c>
       <c r="E365" s="5">
         <v>3</v>
@@ -10721,13 +10724,13 @@
     </row>
     <row r="366" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B366" t="s">
+        <v>791</v>
+      </c>
+      <c r="C366" t="s">
         <v>792</v>
       </c>
-      <c r="C366" t="s">
-        <v>793</v>
-      </c>
       <c r="D366" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E366" s="5">
         <v>2</v>
@@ -10735,13 +10738,13 @@
     </row>
     <row r="367" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B367" t="s">
+        <v>793</v>
+      </c>
+      <c r="C367" t="s">
         <v>794</v>
       </c>
-      <c r="C367" t="s">
-        <v>795</v>
-      </c>
       <c r="D367" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E367" s="5">
         <v>3</v>
@@ -10749,13 +10752,13 @@
     </row>
     <row r="368" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B368" t="s">
+        <v>795</v>
+      </c>
+      <c r="C368" t="s">
         <v>796</v>
       </c>
-      <c r="C368" t="s">
+      <c r="D368" s="5" t="s">
         <v>797</v>
-      </c>
-      <c r="D368" s="5" t="s">
-        <v>798</v>
       </c>
       <c r="E368" s="5">
         <v>3</v>
@@ -10763,13 +10766,13 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B369" t="s">
+        <v>798</v>
+      </c>
+      <c r="C369" t="s">
         <v>799</v>
       </c>
-      <c r="C369" t="s">
-        <v>800</v>
-      </c>
       <c r="D369" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E369" s="5">
         <v>3</v>
@@ -10777,13 +10780,13 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B370" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C370" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D370" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E370" s="5">
         <v>2</v>
@@ -10791,18 +10794,18 @@
     </row>
     <row r="372" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A372" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B373" t="s">
+        <v>801</v>
+      </c>
+      <c r="C373" t="s">
         <v>802</v>
       </c>
-      <c r="C373" t="s">
+      <c r="D373" s="5" t="s">
         <v>803</v>
-      </c>
-      <c r="D373" s="5" t="s">
-        <v>804</v>
       </c>
       <c r="E373" s="5">
         <v>3</v>
@@ -10810,13 +10813,13 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B374" t="s">
+        <v>804</v>
+      </c>
+      <c r="C374" t="s">
         <v>805</v>
       </c>
-      <c r="C374" t="s">
+      <c r="D374" s="5" t="s">
         <v>806</v>
-      </c>
-      <c r="D374" s="5" t="s">
-        <v>807</v>
       </c>
       <c r="E374" s="5">
         <v>5</v>
@@ -10824,13 +10827,13 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B375" t="s">
+        <v>807</v>
+      </c>
+      <c r="C375" t="s">
         <v>808</v>
       </c>
-      <c r="C375" t="s">
+      <c r="D375" s="5" t="s">
         <v>809</v>
-      </c>
-      <c r="D375" s="5" t="s">
-        <v>810</v>
       </c>
       <c r="E375" s="5">
         <v>6</v>
@@ -10838,13 +10841,13 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B376" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="C376" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D376" s="5" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E376" s="5">
         <v>6</v>
@@ -10852,13 +10855,13 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B377" t="s">
+        <v>810</v>
+      </c>
+      <c r="C377" t="s">
         <v>811</v>
       </c>
-      <c r="C377" t="s">
+      <c r="D377" s="5" t="s">
         <v>812</v>
-      </c>
-      <c r="D377" s="5" t="s">
-        <v>813</v>
       </c>
       <c r="E377" s="5">
         <v>8</v>
@@ -10866,19 +10869,19 @@
     </row>
     <row r="379" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A379" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A380" s="6"/>
       <c r="B380" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="C380" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="C380" s="8" t="s">
+      <c r="D380" s="9" t="s">
         <v>535</v>
-      </c>
-      <c r="D380" s="9" t="s">
-        <v>536</v>
       </c>
       <c r="E380" s="9">
         <v>3</v>
@@ -10886,13 +10889,13 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B381" t="s">
+        <v>814</v>
+      </c>
+      <c r="C381" t="s">
         <v>815</v>
       </c>
-      <c r="C381" t="s">
+      <c r="D381" s="5" t="s">
         <v>816</v>
-      </c>
-      <c r="D381" s="5" t="s">
-        <v>817</v>
       </c>
       <c r="E381" s="5">
         <v>2</v>
@@ -10900,13 +10903,13 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B382" t="s">
+        <v>817</v>
+      </c>
+      <c r="C382" t="s">
         <v>818</v>
       </c>
-      <c r="C382" t="s">
+      <c r="D382" s="5" t="s">
         <v>819</v>
-      </c>
-      <c r="D382" s="5" t="s">
-        <v>820</v>
       </c>
       <c r="E382" s="5">
         <v>2</v>
@@ -10914,13 +10917,13 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B383" t="s">
+        <v>820</v>
+      </c>
+      <c r="C383" t="s">
         <v>821</v>
       </c>
-      <c r="C383" t="s">
+      <c r="D383" s="5" t="s">
         <v>822</v>
-      </c>
-      <c r="D383" s="5" t="s">
-        <v>823</v>
       </c>
       <c r="E383" s="5">
         <v>3</v>
@@ -10928,13 +10931,13 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B384" t="s">
+        <v>823</v>
+      </c>
+      <c r="C384" t="s">
         <v>824</v>
       </c>
-      <c r="C384" t="s">
+      <c r="D384" s="5" t="s">
         <v>825</v>
-      </c>
-      <c r="D384" s="5" t="s">
-        <v>826</v>
       </c>
       <c r="E384" s="5">
         <v>2</v>
@@ -10942,13 +10945,13 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B385" t="s">
+        <v>826</v>
+      </c>
+      <c r="C385" t="s">
         <v>827</v>
       </c>
-      <c r="C385" t="s">
+      <c r="D385" s="5" t="s">
         <v>828</v>
-      </c>
-      <c r="D385" s="5" t="s">
-        <v>829</v>
       </c>
       <c r="E385" s="5">
         <v>2</v>
@@ -10956,13 +10959,13 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B386" t="s">
+        <v>829</v>
+      </c>
+      <c r="C386" t="s">
         <v>830</v>
       </c>
-      <c r="C386" t="s">
+      <c r="D386" s="5" t="s">
         <v>831</v>
-      </c>
-      <c r="D386" s="5" t="s">
-        <v>832</v>
       </c>
       <c r="E386" s="5">
         <v>3</v>
@@ -10970,18 +10973,18 @@
     </row>
     <row r="388" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A388" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B389" t="s">
+        <v>832</v>
+      </c>
+      <c r="C389" t="s">
         <v>833</v>
       </c>
-      <c r="C389" t="s">
+      <c r="D389" s="5" t="s">
         <v>834</v>
-      </c>
-      <c r="D389" s="5" t="s">
-        <v>835</v>
       </c>
       <c r="E389" s="5">
         <v>3</v>
@@ -10989,13 +10992,13 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B390" t="s">
+        <v>835</v>
+      </c>
+      <c r="C390" t="s">
         <v>836</v>
       </c>
-      <c r="C390" t="s">
+      <c r="D390" s="5" t="s">
         <v>837</v>
-      </c>
-      <c r="D390" s="5" t="s">
-        <v>838</v>
       </c>
       <c r="E390" s="5">
         <v>6</v>
@@ -11003,13 +11006,13 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B391" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C391" t="s">
+        <v>836</v>
+      </c>
+      <c r="D391" s="5" t="s">
         <v>837</v>
-      </c>
-      <c r="D391" s="5" t="s">
-        <v>838</v>
       </c>
       <c r="E391" s="5">
         <v>3</v>
@@ -11017,13 +11020,13 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B392" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C392" t="s">
+        <v>836</v>
+      </c>
+      <c r="D392" s="5" t="s">
         <v>837</v>
-      </c>
-      <c r="D392" s="5" t="s">
-        <v>838</v>
       </c>
       <c r="E392" s="5">
         <v>4</v>
@@ -11031,13 +11034,13 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B393" t="s">
+        <v>840</v>
+      </c>
+      <c r="C393" t="s">
         <v>841</v>
       </c>
-      <c r="C393" t="s">
+      <c r="D393" s="5" t="s">
         <v>842</v>
-      </c>
-      <c r="D393" s="5" t="s">
-        <v>843</v>
       </c>
       <c r="E393" s="5">
         <v>2</v>
@@ -11045,13 +11048,13 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B394" t="s">
+        <v>843</v>
+      </c>
+      <c r="C394" t="s">
         <v>844</v>
       </c>
-      <c r="C394" t="s">
+      <c r="D394" s="5" t="s">
         <v>845</v>
-      </c>
-      <c r="D394" s="5" t="s">
-        <v>846</v>
       </c>
       <c r="E394" s="5">
         <v>2</v>
@@ -11059,13 +11062,13 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B395" t="s">
+        <v>846</v>
+      </c>
+      <c r="C395" t="s">
         <v>847</v>
       </c>
-      <c r="C395" t="s">
-        <v>848</v>
-      </c>
       <c r="D395" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E395" s="5">
         <v>5</v>
@@ -11073,18 +11076,18 @@
     </row>
     <row r="397" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A397" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B398" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="C398" t="s">
+        <v>848</v>
+      </c>
+      <c r="D398" s="5" t="s">
         <v>849</v>
-      </c>
-      <c r="D398" s="5" t="s">
-        <v>850</v>
       </c>
       <c r="E398" s="5">
         <v>3</v>
@@ -11092,13 +11095,13 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B399" t="s">
+        <v>850</v>
+      </c>
+      <c r="C399" t="s">
         <v>851</v>
       </c>
-      <c r="C399" t="s">
-        <v>852</v>
-      </c>
       <c r="D399" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E399" s="5">
         <v>2</v>
@@ -11106,13 +11109,13 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B400" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C400" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="D400" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E400" s="5">
         <v>2</v>
@@ -11120,13 +11123,13 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B401" t="s">
+        <v>852</v>
+      </c>
+      <c r="C401" t="s">
         <v>853</v>
       </c>
-      <c r="C401" t="s">
-        <v>854</v>
-      </c>
       <c r="D401" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E401" s="5">
         <v>2</v>
@@ -11134,18 +11137,18 @@
     </row>
     <row r="403" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A403" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B404" t="s">
+        <v>856</v>
+      </c>
+      <c r="C404" t="s">
         <v>857</v>
       </c>
-      <c r="C404" t="s">
+      <c r="D404" s="5" t="s">
         <v>858</v>
-      </c>
-      <c r="D404" s="5" t="s">
-        <v>859</v>
       </c>
       <c r="E404" s="5">
         <v>1</v>
@@ -11153,13 +11156,13 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B405" t="s">
+        <v>861</v>
+      </c>
+      <c r="C405" t="s">
         <v>862</v>
       </c>
-      <c r="C405" t="s">
+      <c r="D405" s="5" t="s">
         <v>863</v>
-      </c>
-      <c r="D405" s="5" t="s">
-        <v>864</v>
       </c>
       <c r="E405" s="5">
         <v>3</v>
@@ -11167,13 +11170,13 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B406" t="s">
+        <v>859</v>
+      </c>
+      <c r="C406" t="s">
         <v>860</v>
       </c>
-      <c r="C406" t="s">
-        <v>861</v>
-      </c>
       <c r="D406" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E406" s="5">
         <v>3</v>
@@ -11181,13 +11184,13 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B407" t="s">
+        <v>864</v>
+      </c>
+      <c r="C407" t="s">
         <v>865</v>
       </c>
-      <c r="C407" t="s">
+      <c r="D407" s="5" t="s">
         <v>866</v>
-      </c>
-      <c r="D407" s="5" t="s">
-        <v>867</v>
       </c>
       <c r="E407" s="5">
         <v>3</v>
@@ -11195,18 +11198,18 @@
     </row>
     <row r="409" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A409" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B410" t="s">
+        <v>868</v>
+      </c>
+      <c r="C410" t="s">
         <v>869</v>
       </c>
-      <c r="C410" t="s">
+      <c r="D410" s="5" t="s">
         <v>870</v>
-      </c>
-      <c r="D410" s="5" t="s">
-        <v>871</v>
       </c>
       <c r="E410" s="5">
         <v>3</v>
@@ -11214,13 +11217,13 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B411" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C411" t="s">
+        <v>869</v>
+      </c>
+      <c r="D411" s="5" t="s">
         <v>870</v>
-      </c>
-      <c r="D411" s="5" t="s">
-        <v>871</v>
       </c>
       <c r="E411" s="5">
         <v>2</v>
@@ -11228,13 +11231,13 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B412" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C412" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D412" s="5" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E412" s="5">
         <v>11</v>
@@ -11242,18 +11245,18 @@
     </row>
     <row r="414" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A414" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B415" t="s">
+        <v>872</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D415" s="5" t="s">
         <v>873</v>
-      </c>
-      <c r="C415" t="s">
-        <v>874</v>
-      </c>
-      <c r="D415" s="5" t="s">
-        <v>875</v>
       </c>
       <c r="E415" s="5">
         <v>5</v>
@@ -11261,13 +11264,13 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B416" t="s">
+        <v>874</v>
+      </c>
+      <c r="C416" t="s">
+        <v>875</v>
+      </c>
+      <c r="D416" s="5" t="s">
         <v>876</v>
-      </c>
-      <c r="C416" t="s">
-        <v>877</v>
-      </c>
-      <c r="D416" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="E416" s="5">
         <v>2</v>
@@ -11275,13 +11278,13 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B417" t="s">
+        <v>877</v>
+      </c>
+      <c r="C417" t="s">
+        <v>878</v>
+      </c>
+      <c r="D417" s="5" t="s">
         <v>879</v>
-      </c>
-      <c r="C417" t="s">
-        <v>880</v>
-      </c>
-      <c r="D417" s="5" t="s">
-        <v>881</v>
       </c>
       <c r="E417" s="5">
         <v>3</v>
@@ -11289,13 +11292,13 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B418" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C418" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D418" s="5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E418" s="5">
         <v>2</v>
@@ -11303,18 +11306,18 @@
     </row>
     <row r="420" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A420" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B421" t="s">
+        <v>882</v>
+      </c>
+      <c r="C421" t="s">
+        <v>883</v>
+      </c>
+      <c r="D421" s="5" t="s">
         <v>884</v>
-      </c>
-      <c r="C421" t="s">
-        <v>885</v>
-      </c>
-      <c r="D421" s="5" t="s">
-        <v>886</v>
       </c>
       <c r="E421" s="5">
         <v>5</v>
@@ -11322,13 +11325,13 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B422" t="s">
+        <v>885</v>
+      </c>
+      <c r="C422" t="s">
+        <v>886</v>
+      </c>
+      <c r="D422" s="5" t="s">
         <v>887</v>
-      </c>
-      <c r="C422" t="s">
-        <v>888</v>
-      </c>
-      <c r="D422" s="5" t="s">
-        <v>889</v>
       </c>
       <c r="E422" s="5">
         <v>2</v>
@@ -11336,13 +11339,13 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B423" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C423" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="D423" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E423" s="5">
         <v>6</v>
@@ -11350,13 +11353,13 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B424" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C424" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D424" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E424" s="5">
         <v>3</v>
@@ -11364,13 +11367,13 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B425" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C425" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D425" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E425" s="5">
         <v>1</v>
@@ -11378,13 +11381,13 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B426" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C426" t="s">
-        <v>896</v>
+        <v>1438</v>
       </c>
       <c r="D426" s="5" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E426" s="5">
         <v>3</v>
@@ -11392,18 +11395,18 @@
     </row>
     <row r="428" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A428" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B429" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C429" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D429" s="5" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E429" s="5">
         <v>2</v>
@@ -11411,13 +11414,13 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B430" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C430" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D430" s="5" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E430" s="5">
         <v>3</v>
@@ -11425,13 +11428,13 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B431" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C431" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D431" s="5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E431" s="5">
         <v>5</v>
@@ -11439,13 +11442,13 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B432" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C432" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D432" s="5" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E432" s="5">
         <v>4</v>
@@ -11453,13 +11456,13 @@
     </row>
     <row r="433" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B433" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C433" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D433" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E433" s="5">
         <v>5</v>
@@ -11467,10 +11470,10 @@
     </row>
     <row r="434" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B434" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="D434" s="5" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="E434" s="5">
         <v>10</v>
@@ -11478,13 +11481,13 @@
     </row>
     <row r="435" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B435" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C435" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D435" s="5" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E435" s="5">
         <v>2</v>
@@ -11492,13 +11495,13 @@
     </row>
     <row r="436" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B436" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C436" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D436" s="5" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E436" s="5">
         <v>2</v>
@@ -11506,13 +11509,13 @@
     </row>
     <row r="437" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B437" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C437" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D437" s="5" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E437" s="5">
         <v>5</v>
@@ -11520,13 +11523,13 @@
     </row>
     <row r="438" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B438" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C438" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D438" s="5" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E438" s="5">
         <v>5</v>
@@ -11534,13 +11537,13 @@
     </row>
     <row r="440" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B440" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C440" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D440" s="5" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="E440" s="5">
         <v>4</v>
@@ -11548,13 +11551,13 @@
     </row>
     <row r="442" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B442" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C442" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D442" s="5" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="E442" s="5">
         <v>2</v>
@@ -11562,13 +11565,13 @@
     </row>
     <row r="443" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B443" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C443" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="D443" s="5" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="E443" s="5">
         <v>4</v>
@@ -11576,13 +11579,13 @@
     </row>
     <row r="444" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B444" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C444" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D444" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E444" s="5">
         <v>2</v>
@@ -11590,13 +11593,13 @@
     </row>
     <row r="445" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B445" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C445" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D445" s="5" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E445" s="5">
         <v>4</v>
@@ -11604,13 +11607,13 @@
     </row>
     <row r="447" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B447" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D447" s="5" t="s">
         <v>1111</v>
-      </c>
-      <c r="C447" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D447" s="5" t="s">
-        <v>1114</v>
       </c>
       <c r="E447" s="5">
         <v>2</v>
@@ -11618,13 +11621,13 @@
     </row>
     <row r="448" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B448" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C448" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="D448" s="5" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E448" s="5">
         <v>2</v>
@@ -11632,13 +11635,13 @@
     </row>
     <row r="450" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B450" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="C450" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="D450" s="5" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E450" s="5">
         <v>2</v>
@@ -11646,13 +11649,13 @@
     </row>
     <row r="452" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B452" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C452" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D452" s="5" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="E452" s="5">
         <v>2</v>
@@ -11660,13 +11663,13 @@
     </row>
     <row r="453" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B453" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C453" t="s">
+        <v>925</v>
+      </c>
+      <c r="D453" s="5" t="s">
         <v>928</v>
-      </c>
-      <c r="D453" s="5" t="s">
-        <v>931</v>
       </c>
       <c r="E453" s="5">
         <v>2</v>
@@ -11674,13 +11677,13 @@
     </row>
     <row r="454" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B454" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C454" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D454" s="5" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E454" s="5">
         <v>2</v>
@@ -11688,10 +11691,10 @@
     </row>
     <row r="455" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B455" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="D455" s="5" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="E455" s="5">
         <v>5</v>
@@ -11699,10 +11702,10 @@
     </row>
     <row r="456" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B456" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="D456" s="5" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="E456" s="5">
         <v>10</v>
@@ -11710,13 +11713,13 @@
     </row>
     <row r="458" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B458" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C458" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D458" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="E458" s="5">
         <v>3</v>
@@ -11724,13 +11727,13 @@
     </row>
     <row r="460" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B460" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C460" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D460" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="E460" s="5">
         <v>3</v>
@@ -11738,13 +11741,13 @@
     </row>
     <row r="461" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B461" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C461" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="D461" s="5" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="E461" s="5">
         <v>5</v>
@@ -11752,13 +11755,13 @@
     </row>
     <row r="463" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B463" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C463" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="D463" s="5" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E463" s="5">
         <v>2</v>
@@ -11766,10 +11769,10 @@
     </row>
     <row r="464" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B464" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="C464" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="E464" s="5">
         <v>2</v>
@@ -11777,10 +11780,10 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B465" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C465" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="E465" s="5">
         <v>2</v>
@@ -11788,18 +11791,18 @@
     </row>
     <row r="466" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A466" s="1" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B467" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="C467" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="D467" s="5" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="E467" s="5">
         <v>4</v>
@@ -11807,10 +11810,10 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B468" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="D468" s="5" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="E468" s="5">
         <v>2</v>
@@ -11818,10 +11821,10 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B469" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="D469" s="5" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="E469" s="5">
         <v>10</v>
@@ -11829,10 +11832,10 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B470" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="D470" s="5" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="E470" s="5">
         <v>10</v>
@@ -11840,10 +11843,10 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B471" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="D471" s="5" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="E471" s="5">
         <v>8</v>
@@ -11851,10 +11854,10 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B472" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="D472" s="5" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="E472" s="5">
         <v>2</v>
@@ -11862,10 +11865,10 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B473" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="D473" s="5" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="E473" s="5">
         <v>5</v>
@@ -11873,10 +11876,10 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B474" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D474" s="5" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="E474" s="5">
         <v>2</v>
@@ -11884,10 +11887,10 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B475" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="D475" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="E475" s="5">
         <v>4</v>
@@ -11895,10 +11898,10 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B476" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="D476" s="5" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="E476" s="5">
         <v>4</v>
@@ -11906,10 +11909,10 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B477" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="D477" s="5" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="E477" s="5">
         <v>2</v>
@@ -11917,10 +11920,10 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B478" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="D478" s="5" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="E478" s="5">
         <v>1</v>
@@ -11943,6 +11946,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="19.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="5" bestFit="1" customWidth="1"/>
@@ -12013,13 +12017,13 @@
     </row>
     <row r="6" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>593</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>594</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -12097,13 +12101,13 @@
     </row>
     <row r="12" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="E12" s="4">
         <v>40</v>
@@ -12111,13 +12115,13 @@
     </row>
     <row r="13" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="E13" s="4">
         <v>5</v>
@@ -12223,13 +12227,13 @@
     </row>
     <row r="21" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>584</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>585</v>
       </c>
       <c r="E21" s="4">
         <v>2</v>
@@ -12237,13 +12241,13 @@
     </row>
     <row r="22" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="E22" s="4">
         <v>2</v>
@@ -12251,13 +12255,13 @@
     </row>
     <row r="23" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
@@ -12279,13 +12283,13 @@
     </row>
     <row r="25" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>590</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>591</v>
       </c>
       <c r="E25" s="4">
         <v>2</v>
@@ -12293,13 +12297,13 @@
     </row>
     <row r="26" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>588</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
@@ -12338,13 +12342,13 @@
     </row>
     <row r="30" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="E30" s="4">
         <v>7</v>
@@ -12352,13 +12356,13 @@
     </row>
     <row r="31" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>596</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>597</v>
       </c>
       <c r="E31" s="4">
         <v>2</v>
@@ -12408,13 +12412,13 @@
     </row>
     <row r="35" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E35" s="4">
         <v>2</v>
@@ -12422,13 +12426,13 @@
     </row>
     <row r="36" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E36" s="4">
         <v>3</v>
@@ -12436,13 +12440,13 @@
     </row>
     <row r="37" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="E37" s="4">
         <v>10</v>
@@ -12450,13 +12454,13 @@
     </row>
     <row r="38" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="E38" s="4">
         <v>4</v>
@@ -12464,13 +12468,13 @@
     </row>
     <row r="39" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>1348</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>1352</v>
       </c>
       <c r="E39" s="4">
         <v>5</v>
@@ -12548,13 +12552,13 @@
     </row>
     <row r="45" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="E45" s="4">
         <v>10</v>
@@ -12604,13 +12608,13 @@
     </row>
     <row r="49" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="E49" s="4">
         <v>2</v>
@@ -12660,13 +12664,13 @@
     </row>
     <row r="54" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="E54" s="4">
         <v>2</v>
@@ -12674,13 +12678,13 @@
     </row>
     <row r="55" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="E55" s="4">
         <v>2</v>
@@ -12688,13 +12692,13 @@
     </row>
     <row r="56" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="E56" s="4">
         <v>4</v>
@@ -12717,6 +12721,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="3" max="3" width="108.75" customWidth="1"/>
     <col min="4" max="5" width="9" style="5"/>
   </cols>
@@ -12737,13 +12742,13 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C3" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="E3" s="5">
         <v>2</v>
@@ -12751,13 +12756,13 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C4" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E4" s="5">
         <v>2</v>
@@ -12765,13 +12770,13 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="C5" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="E5" s="5">
         <v>2</v>
@@ -12779,13 +12784,13 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C6" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="E6" s="5">
         <v>4</v>
@@ -12793,13 +12798,13 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="C7" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="E7" s="5">
         <v>2</v>
@@ -12807,13 +12812,13 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C8" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -12821,13 +12826,13 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C9" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="E9" s="5">
         <v>2</v>
@@ -12835,13 +12840,13 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C10" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -12849,13 +12854,13 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="C11" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="E11" s="5">
         <v>2</v>
@@ -12863,13 +12868,13 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="C12" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E12" s="5">
         <v>2</v>
@@ -12877,13 +12882,13 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="C13" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -12891,13 +12896,13 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C14" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E14" s="5">
         <v>4</v>
@@ -12905,13 +12910,13 @@
     </row>
     <row r="15" spans="2:5" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="B15" s="11" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E15" s="13">
         <v>2</v>
@@ -12919,13 +12924,13 @@
     </row>
     <row r="16" spans="2:5" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="B16" s="11" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="E16" s="13">
         <v>2</v>
@@ -12933,13 +12938,13 @@
     </row>
     <row r="17" spans="2:5" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="B17" s="11" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="E17" s="13">
         <v>2</v>
@@ -12947,13 +12952,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="11" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C18" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="E18" s="5">
         <v>4</v>
@@ -12961,13 +12966,13 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="11" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="C19" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="E19" s="5">
         <v>15</v>
@@ -12990,6 +12995,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="3" max="3" width="56.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13009,13 +13015,13 @@
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C2" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="D2" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -13023,10 +13029,10 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="C3" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -13034,10 +13040,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C4" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -13053,12 +13059,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="79.625" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="5" bestFit="1" customWidth="1"/>
@@ -13081,13 +13088,13 @@
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C2" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="E2" s="5">
         <v>15</v>
@@ -13095,7 +13102,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>107</v>
@@ -13106,10 +13113,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="E4" s="5">
         <v>10</v>
@@ -13117,10 +13124,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="E5" s="5">
         <v>2</v>
@@ -13128,10 +13135,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
@@ -13139,13 +13146,13 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C7" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="E7" s="5">
         <v>4</v>
@@ -13153,13 +13160,13 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="C8" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="E8" s="5">
         <v>2</v>
@@ -13167,13 +13174,13 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="C9" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="E9" s="5">
         <v>9</v>
@@ -13181,10 +13188,10 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -13192,13 +13199,13 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C11" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="E11" s="5">
         <v>10</v>
@@ -13206,13 +13213,13 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="C12" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="E12" s="5">
         <v>15</v>
@@ -13220,13 +13227,13 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="C13" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="E13" s="5">
         <v>2</v>
@@ -13234,13 +13241,13 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="C14" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="E14" s="5">
         <v>12</v>
@@ -13248,13 +13255,13 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="C15" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="E15" s="5">
         <v>3</v>
@@ -13262,13 +13269,13 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="C16" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="E16" s="5">
         <v>4</v>
@@ -13276,13 +13283,13 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C17" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="E17" s="5">
         <v>5</v>
@@ -13290,13 +13297,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C18" t="s">
-        <v>1265</v>
+        <v>1440</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="E18" s="5">
         <v>6</v>
@@ -13304,13 +13311,13 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C19" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="E19" s="5">
         <v>15</v>
@@ -13318,13 +13325,13 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C20" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="E20" s="5">
         <v>8</v>
@@ -13332,13 +13339,13 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="C21" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="E21" s="5">
         <v>10</v>
@@ -13346,13 +13353,13 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="C22" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="E22" s="5">
         <v>10</v>
@@ -13360,13 +13367,13 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C23" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="E23" s="5">
         <v>4</v>
@@ -13374,13 +13381,13 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="C24" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="E24" s="5">
         <v>10</v>
@@ -13388,13 +13395,13 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="C25" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="E25" s="5">
         <v>5</v>
@@ -13402,13 +13409,13 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="C26" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="E26" s="5">
         <v>15</v>
@@ -13416,13 +13423,13 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="C27" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="E27" s="5">
         <v>10</v>
@@ -13430,13 +13437,13 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="C28" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="E28" s="5">
         <v>20</v>
@@ -13444,13 +13451,13 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="C29" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="E29" s="5">
         <v>10</v>
@@ -13458,13 +13465,13 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="C30" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="E30" s="5">
         <v>4</v>
@@ -13472,10 +13479,10 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="E31" s="5">
         <v>4</v>
@@ -13483,10 +13490,10 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="E32" s="5">
         <v>2</v>
@@ -13494,10 +13501,10 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="E33" s="5">
         <v>2</v>
@@ -13505,10 +13512,10 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="E34" s="5">
         <v>9</v>
@@ -13516,10 +13523,10 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="E35" s="5">
         <v>5</v>
@@ -13527,10 +13534,10 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="E36" s="5">
         <v>6</v>
@@ -13538,13 +13545,13 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C37" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="E37" s="5">
         <v>8</v>
@@ -13552,13 +13559,13 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="C38" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="E38" s="5">
         <v>20</v>
@@ -13566,13 +13573,13 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C39" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="E39" s="5">
         <v>7</v>
@@ -13580,13 +13587,13 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C40" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="E40" s="5">
         <v>20</v>
@@ -13594,13 +13601,13 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C41" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="E41" s="5">
         <v>4</v>
@@ -13617,12 +13624,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="96" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="13" bestFit="1" customWidth="1"/>
@@ -13645,13 +13653,13 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C4" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="E4" s="13">
         <v>20</v>
@@ -13659,13 +13667,13 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="C5" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="E5" s="13">
         <v>8</v>
@@ -13673,13 +13681,13 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>1363</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>1367</v>
       </c>
       <c r="E6" s="13">
         <v>5</v>
@@ -13687,13 +13695,13 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="C7" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="E7" s="13">
         <v>10</v>
@@ -13701,13 +13709,13 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="C8" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="E8" s="13">
         <v>20</v>
@@ -13715,13 +13723,13 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="C9" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="E9" s="13">
         <v>20</v>
@@ -13729,13 +13737,13 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="C10" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="E10" s="13">
         <v>10</v>
@@ -13743,13 +13751,13 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="C11" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="E11" s="13">
         <v>50</v>
@@ -13757,13 +13765,13 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="C12" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="E12" s="13">
         <v>20</v>
@@ -13771,13 +13779,13 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="C13" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="E13" s="13">
         <v>20</v>
@@ -13785,13 +13793,13 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="C14" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="E14" s="13">
         <v>10</v>
@@ -13799,13 +13807,13 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C15" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="E15" s="13">
         <v>10</v>
@@ -13813,13 +13821,13 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C16" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="E16" s="13">
         <v>20</v>
@@ -13827,13 +13835,13 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="C17" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="E17" s="13">
         <v>50</v>
@@ -13841,13 +13849,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C18" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="E18" s="13">
         <v>15</v>
@@ -13855,13 +13863,13 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C19" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="E19" s="13">
         <v>10</v>
@@ -13869,13 +13877,13 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C20" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="E20" s="13">
         <v>20</v>
@@ -13883,13 +13891,13 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C21" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="E21" s="13">
         <v>18</v>
@@ -13897,13 +13905,13 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C22" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="E22" s="13">
         <v>15</v>
@@ -13911,13 +13919,13 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="C23" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="E23" s="13">
         <v>4</v>
@@ -13925,13 +13933,13 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C24" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="E24" s="13">
         <v>10</v>
@@ -13939,13 +13947,13 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="C25" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="E25" s="13">
         <v>5</v>
@@ -13953,13 +13961,13 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C26" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="E26" s="13">
         <v>10</v>
@@ -13967,13 +13975,13 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C27" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="E27" s="13">
         <v>4</v>
@@ -13981,13 +13989,13 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="C28" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="E28" s="13">
         <v>4</v>
@@ -13995,13 +14003,13 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="C29" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="E29" s="13">
         <v>10</v>
@@ -14009,13 +14017,13 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="C30" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="E30" s="13">
         <v>11</v>
@@ -14023,13 +14031,13 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="C31" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E31" s="13">
         <v>8</v>
@@ -14037,13 +14045,13 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="C32" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="E32" s="13">
         <v>30</v>
@@ -14051,13 +14059,13 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C33" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="E33" s="13">
         <v>10</v>

--- a/芯片申请.xlsx
+++ b/芯片申请.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26160" windowHeight="10980" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TI" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="1441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="1438">
   <si>
     <t>OP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3517,9 +3517,6 @@
   <si>
     <t>SSOP-28</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPA3112D1PWPR</t>
   </si>
   <si>
     <t>具有 SpeakerGuard™ 的 25W 单声道无滤波器 D 类音频放大器 (TPA3112)</t>
@@ -5457,18 +5454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">TM4C1294NCPDT </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TQFP-128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tiva TM4C1294NCPDT Microcontroller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>XPT2046</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5562,6 +5547,10 @@
   </si>
   <si>
     <t>选通信号的差动比较器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPA3112D1PWPR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5801,23 +5790,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5853,23 +5825,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6048,8 +6003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E478"/>
   <sheetViews>
-    <sheetView topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="C370" sqref="C370"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6236,13 +6191,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C14" t="s">
         <v>1018</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="5" t="s">
         <v>1019</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>1020</v>
       </c>
       <c r="E14" s="5">
         <v>4</v>
@@ -6404,13 +6359,13 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C27" t="s">
         <v>1194</v>
       </c>
-      <c r="C27" t="s">
-        <v>1195</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E27" s="5">
         <v>4</v>
@@ -6418,13 +6373,13 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C28" t="s">
         <v>1196</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" s="5" t="s">
         <v>1197</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>1198</v>
       </c>
       <c r="E28" s="5">
         <v>2</v>
@@ -6474,10 +6429,10 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>1190</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>1191</v>
       </c>
       <c r="E32" s="5">
         <v>7</v>
@@ -6485,10 +6440,10 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>1192</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>1193</v>
       </c>
       <c r="E33" s="5">
         <v>10</v>
@@ -6538,13 +6493,13 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>1212</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>1213</v>
       </c>
       <c r="E39" s="5">
         <v>5</v>
@@ -7658,13 +7613,13 @@
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C121" t="s">
         <v>1128</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" s="5" t="s">
         <v>1129</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>1130</v>
       </c>
       <c r="E121" s="5">
         <v>2</v>
@@ -8204,7 +8159,7 @@
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B167" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E167" s="5">
         <v>8</v>
@@ -8226,13 +8181,13 @@
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B170" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C170" t="s">
         <v>1115</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" s="5" t="s">
         <v>1116</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>1117</v>
       </c>
       <c r="E170" s="5">
         <v>2</v>
@@ -8240,13 +8195,13 @@
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B171" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C171" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E171" s="5">
         <v>4</v>
@@ -8254,13 +8209,13 @@
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B172" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C172" t="s">
         <v>1120</v>
       </c>
-      <c r="C172" t="s">
-        <v>1121</v>
-      </c>
       <c r="D172" s="5" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E172" s="5">
         <v>2</v>
@@ -8282,13 +8237,13 @@
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B174" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C174" t="s">
         <v>1122</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" s="5" t="s">
         <v>1123</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>1124</v>
       </c>
       <c r="E174" s="5">
         <v>3</v>
@@ -8310,10 +8265,10 @@
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B176" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C176" t="s">
         <v>980</v>
-      </c>
-      <c r="C176" t="s">
-        <v>981</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>979</v>
@@ -8324,13 +8279,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B177" t="s">
+        <v>981</v>
+      </c>
+      <c r="C177" t="s">
         <v>982</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" s="5" t="s">
         <v>983</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>984</v>
       </c>
       <c r="E177" s="5">
         <v>3</v>
@@ -8338,10 +8293,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B178" t="s">
+        <v>984</v>
+      </c>
+      <c r="C178" t="s">
         <v>985</v>
-      </c>
-      <c r="C178" t="s">
-        <v>986</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>937</v>
@@ -8352,10 +8307,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B179" t="s">
+        <v>986</v>
+      </c>
+      <c r="C179" t="s">
         <v>987</v>
-      </c>
-      <c r="C179" t="s">
-        <v>988</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>937</v>
@@ -8366,13 +8321,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B180" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C180" t="s">
+        <v>988</v>
+      </c>
+      <c r="D180" s="5" t="s">
         <v>989</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>990</v>
       </c>
       <c r="E180" s="5">
         <v>3</v>
@@ -8380,13 +8335,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B181" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C181" t="s">
+        <v>988</v>
+      </c>
+      <c r="D181" s="5" t="s">
         <v>1210</v>
-      </c>
-      <c r="C181" t="s">
-        <v>989</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>1211</v>
       </c>
       <c r="E181" s="5">
         <v>5</v>
@@ -8394,13 +8349,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B182" t="s">
+        <v>990</v>
+      </c>
+      <c r="C182" t="s">
         <v>991</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" s="5" t="s">
         <v>992</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>993</v>
       </c>
       <c r="E182" s="5">
         <v>8</v>
@@ -8408,10 +8363,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B183" t="s">
+        <v>993</v>
+      </c>
+      <c r="C183" t="s">
         <v>994</v>
-      </c>
-      <c r="C183" t="s">
-        <v>995</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>866</v>
@@ -8422,10 +8377,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B184" t="s">
+        <v>995</v>
+      </c>
+      <c r="C184" t="s">
         <v>996</v>
-      </c>
-      <c r="C184" t="s">
-        <v>997</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>806</v>
@@ -8436,13 +8391,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B185" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C185" t="s">
+        <v>997</v>
+      </c>
+      <c r="D185" s="5" t="s">
         <v>998</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>999</v>
       </c>
       <c r="E185" s="5">
         <v>3</v>
@@ -8450,10 +8405,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B186" t="s">
+        <v>999</v>
+      </c>
+      <c r="C186" t="s">
         <v>1000</v>
-      </c>
-      <c r="C186" t="s">
-        <v>1001</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>870</v>
@@ -8553,13 +8508,13 @@
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B195" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C195" t="s">
         <v>1101</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" s="5" t="s">
         <v>1102</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>1103</v>
       </c>
       <c r="E195" s="5">
         <v>3</v>
@@ -8567,13 +8522,13 @@
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B196" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C196" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D196" s="5" t="s">
         <v>1102</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>1103</v>
       </c>
       <c r="E196" s="5">
         <v>3</v>
@@ -8654,7 +8609,7 @@
         <v>441</v>
       </c>
       <c r="C202" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>442</v>
@@ -8810,13 +8765,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B217" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D217" s="5" t="s">
         <v>1113</v>
-      </c>
-      <c r="C217" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>1114</v>
       </c>
       <c r="E217" s="5">
         <v>1</v>
@@ -9076,13 +9031,13 @@
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B237" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C237" t="s">
         <v>1105</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" s="5" t="s">
         <v>1106</v>
-      </c>
-      <c r="D237" s="5" t="s">
-        <v>1107</v>
       </c>
       <c r="E237" s="5">
         <v>4</v>
@@ -9118,13 +9073,13 @@
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B240" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C240" t="s">
         <v>1021</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" s="5" t="s">
         <v>1022</v>
-      </c>
-      <c r="D240" s="5" t="s">
-        <v>1023</v>
       </c>
       <c r="E240" s="5">
         <v>12</v>
@@ -9188,7 +9143,7 @@
     </row>
     <row r="247" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A247" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.15">
@@ -9408,13 +9363,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B266" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C266" t="s">
         <v>1155</v>
       </c>
-      <c r="C266" t="s">
+      <c r="D266" s="5" t="s">
         <v>1156</v>
-      </c>
-      <c r="D266" s="5" t="s">
-        <v>1157</v>
       </c>
       <c r="E266" s="5">
         <v>2</v>
@@ -9450,7 +9405,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B269" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C269" t="s">
         <v>540</v>
@@ -9492,10 +9447,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B272" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C272" t="s">
         <v>1027</v>
-      </c>
-      <c r="C272" t="s">
-        <v>1028</v>
       </c>
       <c r="D272" s="5" t="s">
         <v>806</v>
@@ -9576,13 +9531,13 @@
     </row>
     <row r="279" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B279" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C279" t="s">
         <v>1040</v>
       </c>
-      <c r="C279" t="s">
+      <c r="D279" s="5" t="s">
         <v>1041</v>
-      </c>
-      <c r="D279" s="5" t="s">
-        <v>1042</v>
       </c>
       <c r="E279" s="5">
         <v>2</v>
@@ -9688,13 +9643,13 @@
     </row>
     <row r="288" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B288" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C288" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E288" s="5">
         <v>28</v>
@@ -9716,13 +9671,13 @@
     </row>
     <row r="291" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B291" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D291" s="5" t="s">
         <v>1323</v>
-      </c>
-      <c r="C291" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D291" s="5" t="s">
-        <v>1324</v>
       </c>
       <c r="E291" s="5">
         <v>15</v>
@@ -9884,13 +9839,13 @@
     </row>
     <row r="305" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B305" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D305" s="5" t="s">
         <v>1046</v>
-      </c>
-      <c r="C305" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D305" s="5" t="s">
-        <v>1047</v>
       </c>
       <c r="E305" s="5">
         <v>2</v>
@@ -10038,13 +9993,13 @@
     </row>
     <row r="316" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B316" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D316" s="5" t="s">
         <v>1150</v>
-      </c>
-      <c r="C316" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D316" s="5" t="s">
-        <v>1151</v>
       </c>
       <c r="E316" s="5">
         <v>8</v>
@@ -10080,13 +10035,13 @@
     </row>
     <row r="319" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B319" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D319" s="5" t="s">
         <v>1032</v>
-      </c>
-      <c r="C319" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D319" s="5" t="s">
-        <v>1033</v>
       </c>
       <c r="E319" s="5">
         <v>3</v>
@@ -10136,13 +10091,13 @@
     </row>
     <row r="323" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B323" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C323" t="s">
         <v>1024</v>
       </c>
-      <c r="C323" t="s">
+      <c r="D323" s="5" t="s">
         <v>1025</v>
-      </c>
-      <c r="D323" s="5" t="s">
-        <v>1026</v>
       </c>
       <c r="E323" s="5">
         <v>3</v>
@@ -10430,13 +10385,13 @@
     </row>
     <row r="344" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B344" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C344" t="s">
         <v>1312</v>
       </c>
-      <c r="C344" t="s">
-        <v>1313</v>
-      </c>
       <c r="D344" s="5" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E344" s="5">
         <v>10</v>
@@ -10570,13 +10525,13 @@
     </row>
     <row r="355" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B355" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D355" s="5" t="s">
         <v>1320</v>
-      </c>
-      <c r="C355" t="s">
-        <v>1322</v>
-      </c>
-      <c r="D355" s="5" t="s">
-        <v>1321</v>
       </c>
       <c r="E355" s="5">
         <v>20</v>
@@ -10584,13 +10539,13 @@
     </row>
     <row r="356" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B356" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C356" t="s">
         <v>1009</v>
       </c>
-      <c r="C356" t="s">
+      <c r="D356" s="5" t="s">
         <v>1010</v>
-      </c>
-      <c r="D356" s="5" t="s">
-        <v>1011</v>
       </c>
       <c r="E356" s="5">
         <v>3</v>
@@ -10598,13 +10553,13 @@
     </row>
     <row r="357" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B357" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C357" t="s">
         <v>1012</v>
       </c>
-      <c r="C357" t="s">
+      <c r="D357" s="5" t="s">
         <v>1013</v>
-      </c>
-      <c r="D357" s="5" t="s">
-        <v>1014</v>
       </c>
       <c r="E357" s="5">
         <v>3</v>
@@ -10612,13 +10567,13 @@
     </row>
     <row r="358" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B358" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C358" t="s">
         <v>1015</v>
       </c>
-      <c r="C358" t="s">
+      <c r="D358" s="5" t="s">
         <v>1016</v>
-      </c>
-      <c r="D358" s="5" t="s">
-        <v>1017</v>
       </c>
       <c r="E358" s="5">
         <v>3</v>
@@ -10794,7 +10749,7 @@
     </row>
     <row r="372" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A372" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.15">
@@ -10841,13 +10796,13 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B376" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C376" t="s">
         <v>1043</v>
       </c>
-      <c r="C376" t="s">
+      <c r="D376" s="5" t="s">
         <v>1044</v>
-      </c>
-      <c r="D376" s="5" t="s">
-        <v>1045</v>
       </c>
       <c r="E376" s="5">
         <v>6</v>
@@ -10973,7 +10928,7 @@
     </row>
     <row r="388" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A388" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.15">
@@ -11076,12 +11031,12 @@
     </row>
     <row r="397" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A397" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B398" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C398" t="s">
         <v>848</v>
@@ -11109,10 +11064,10 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B400" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C400" t="s">
         <v>1153</v>
-      </c>
-      <c r="C400" t="s">
-        <v>1154</v>
       </c>
       <c r="D400" s="5" t="s">
         <v>849</v>
@@ -11137,7 +11092,7 @@
     </row>
     <row r="403" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A403" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.15">
@@ -11245,7 +11200,7 @@
     </row>
     <row r="414" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A414" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.15">
@@ -11253,7 +11208,7 @@
         <v>872</v>
       </c>
       <c r="C415" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="D415" s="5" t="s">
         <v>873</v>
@@ -11306,7 +11261,7 @@
     </row>
     <row r="420" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A420" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.15">
@@ -11342,7 +11297,7 @@
         <v>888</v>
       </c>
       <c r="C423" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D423" s="5" t="s">
         <v>870</v>
@@ -11384,7 +11339,7 @@
         <v>893</v>
       </c>
       <c r="C426" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="D426" s="5" t="s">
         <v>894</v>
@@ -11470,10 +11425,10 @@
     </row>
     <row r="434" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B434" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D434" s="5" t="s">
         <v>1291</v>
-      </c>
-      <c r="D434" s="5" t="s">
-        <v>1292</v>
       </c>
       <c r="E434" s="5">
         <v>10</v>
@@ -11537,13 +11492,13 @@
     </row>
     <row r="440" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B440" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C440" t="s">
         <v>1034</v>
       </c>
-      <c r="C440" t="s">
+      <c r="D440" s="5" t="s">
         <v>1035</v>
-      </c>
-      <c r="D440" s="5" t="s">
-        <v>1036</v>
       </c>
       <c r="E440" s="5">
         <v>4</v>
@@ -11551,13 +11506,13 @@
     </row>
     <row r="442" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B442" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C442" t="s">
         <v>1037</v>
       </c>
-      <c r="C442" t="s">
+      <c r="D442" s="5" t="s">
         <v>1038</v>
-      </c>
-      <c r="D442" s="5" t="s">
-        <v>1039</v>
       </c>
       <c r="E442" s="5">
         <v>2</v>
@@ -11565,13 +11520,13 @@
     </row>
     <row r="443" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B443" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C443" t="s">
         <v>1178</v>
       </c>
-      <c r="C443" t="s">
+      <c r="D443" s="5" t="s">
         <v>1179</v>
-      </c>
-      <c r="D443" s="5" t="s">
-        <v>1180</v>
       </c>
       <c r="E443" s="5">
         <v>4</v>
@@ -11607,13 +11562,13 @@
     </row>
     <row r="447" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B447" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C447" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D447" s="5" t="s">
         <v>1110</v>
-      </c>
-      <c r="D447" s="5" t="s">
-        <v>1111</v>
       </c>
       <c r="E447" s="5">
         <v>2</v>
@@ -11624,7 +11579,7 @@
         <v>922</v>
       </c>
       <c r="C448" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D448" s="5" t="s">
         <v>923</v>
@@ -11635,13 +11590,13 @@
     </row>
     <row r="450" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B450" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C450" t="s">
         <v>1125</v>
       </c>
-      <c r="C450" t="s">
+      <c r="D450" s="5" t="s">
         <v>1126</v>
-      </c>
-      <c r="D450" s="5" t="s">
-        <v>1127</v>
       </c>
       <c r="E450" s="5">
         <v>2</v>
@@ -11691,10 +11646,10 @@
     </row>
     <row r="455" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B455" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D455" s="5" t="s">
         <v>1174</v>
-      </c>
-      <c r="D455" s="5" t="s">
-        <v>1175</v>
       </c>
       <c r="E455" s="5">
         <v>5</v>
@@ -11702,10 +11657,10 @@
     </row>
     <row r="456" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B456" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D456" s="5" t="s">
         <v>1176</v>
-      </c>
-      <c r="D456" s="5" t="s">
-        <v>1177</v>
       </c>
       <c r="E456" s="5">
         <v>10</v>
@@ -11755,13 +11710,13 @@
     </row>
     <row r="463" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B463" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C463" t="s">
         <v>1205</v>
       </c>
-      <c r="C463" t="s">
-        <v>1206</v>
-      </c>
       <c r="D463" s="5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E463" s="5">
         <v>2</v>
@@ -11769,10 +11724,10 @@
     </row>
     <row r="464" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B464" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C464" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E464" s="5">
         <v>2</v>
@@ -11780,10 +11735,10 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B465" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C465" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E465" s="5">
         <v>2</v>
@@ -11791,18 +11746,18 @@
     </row>
     <row r="466" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A466" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B467" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C467" t="s">
         <v>1132</v>
       </c>
-      <c r="C467" t="s">
+      <c r="D467" s="5" t="s">
         <v>1133</v>
-      </c>
-      <c r="D467" s="5" t="s">
-        <v>1134</v>
       </c>
       <c r="E467" s="5">
         <v>4</v>
@@ -11810,10 +11765,10 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B468" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D468" s="5" t="s">
         <v>1158</v>
-      </c>
-      <c r="D468" s="5" t="s">
-        <v>1159</v>
       </c>
       <c r="E468" s="5">
         <v>2</v>
@@ -11821,10 +11776,10 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B469" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D469" s="5" t="s">
         <v>1289</v>
-      </c>
-      <c r="D469" s="5" t="s">
-        <v>1290</v>
       </c>
       <c r="E469" s="5">
         <v>10</v>
@@ -11832,10 +11787,10 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B470" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D470" s="5" t="s">
         <v>1215</v>
-      </c>
-      <c r="D470" s="5" t="s">
-        <v>1216</v>
       </c>
       <c r="E470" s="5">
         <v>10</v>
@@ -11843,10 +11798,10 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B471" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D471" s="5" t="s">
         <v>1135</v>
-      </c>
-      <c r="D471" s="5" t="s">
-        <v>1136</v>
       </c>
       <c r="E471" s="5">
         <v>8</v>
@@ -11854,10 +11809,10 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B472" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D472" s="5" t="s">
         <v>1137</v>
-      </c>
-      <c r="D472" s="5" t="s">
-        <v>1138</v>
       </c>
       <c r="E472" s="5">
         <v>2</v>
@@ -11865,10 +11820,10 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B473" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D473" s="5" t="s">
         <v>1139</v>
-      </c>
-      <c r="D473" s="5" t="s">
-        <v>1140</v>
       </c>
       <c r="E473" s="5">
         <v>5</v>
@@ -11876,10 +11831,10 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B474" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D474" s="5" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E474" s="5">
         <v>2</v>
@@ -11887,10 +11842,10 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B475" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D475" s="5" t="s">
         <v>1142</v>
-      </c>
-      <c r="D475" s="5" t="s">
-        <v>1143</v>
       </c>
       <c r="E475" s="5">
         <v>4</v>
@@ -11898,10 +11853,10 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B476" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D476" s="5" t="s">
         <v>1144</v>
-      </c>
-      <c r="D476" s="5" t="s">
-        <v>1145</v>
       </c>
       <c r="E476" s="5">
         <v>4</v>
@@ -11909,10 +11864,10 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B477" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D477" s="5" t="s">
         <v>1146</v>
-      </c>
-      <c r="D477" s="5" t="s">
-        <v>1147</v>
       </c>
       <c r="E477" s="5">
         <v>2</v>
@@ -11920,10 +11875,10 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B478" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D478" s="5" t="s">
         <v>1148</v>
-      </c>
-      <c r="D478" s="5" t="s">
-        <v>1149</v>
       </c>
       <c r="E478" s="5">
         <v>1</v>
@@ -12101,13 +12056,13 @@
     </row>
     <row r="12" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>1279</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>1331</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>1280</v>
       </c>
       <c r="E12" s="4">
         <v>40</v>
@@ -12115,13 +12070,13 @@
     </row>
     <row r="13" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>1330</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E13" s="4">
         <v>5</v>
@@ -12241,13 +12196,13 @@
     </row>
     <row r="22" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>1051</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>1052</v>
       </c>
       <c r="E22" s="4">
         <v>2</v>
@@ -12255,13 +12210,13 @@
     </row>
     <row r="23" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>1049</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>1342</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>1050</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
@@ -12342,13 +12297,13 @@
     </row>
     <row r="30" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>1333</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>1334</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>1335</v>
       </c>
       <c r="E30" s="4">
         <v>7</v>
@@ -12412,13 +12367,13 @@
     </row>
     <row r="35" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>1056</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>1057</v>
       </c>
       <c r="E35" s="4">
         <v>2</v>
@@ -12426,13 +12381,13 @@
     </row>
     <row r="36" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>1053</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="D36" s="4" t="s">
         <v>1054</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>1055</v>
       </c>
       <c r="E36" s="4">
         <v>3</v>
@@ -12440,13 +12395,13 @@
     </row>
     <row r="37" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>1339</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>1340</v>
       </c>
       <c r="E37" s="4">
         <v>10</v>
@@ -12454,13 +12409,13 @@
     </row>
     <row r="38" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>1345</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>1346</v>
       </c>
       <c r="E38" s="4">
         <v>4</v>
@@ -12468,13 +12423,13 @@
     </row>
     <row r="39" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>1347</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>1348</v>
       </c>
       <c r="E39" s="4">
         <v>5</v>
@@ -12552,13 +12507,13 @@
     </row>
     <row r="45" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="4" t="s">
         <v>1161</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>1162</v>
       </c>
       <c r="E45" s="4">
         <v>10</v>
@@ -12608,13 +12563,13 @@
     </row>
     <row r="49" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>1353</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>1354</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>1355</v>
       </c>
       <c r="E49" s="4">
         <v>2</v>
@@ -12664,13 +12619,13 @@
     </row>
     <row r="54" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>1286</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>1287</v>
       </c>
       <c r="E54" s="4">
         <v>2</v>
@@ -12678,13 +12633,13 @@
     </row>
     <row r="55" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E55" s="4">
         <v>2</v>
@@ -12692,13 +12647,13 @@
     </row>
     <row r="56" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E56" s="4">
         <v>4</v>
@@ -12742,13 +12697,13 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C3" t="s">
         <v>1093</v>
       </c>
-      <c r="C3" t="s">
-        <v>1094</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E3" s="5">
         <v>2</v>
@@ -12756,13 +12711,13 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C4" t="s">
         <v>1076</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="5" t="s">
         <v>1077</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1078</v>
       </c>
       <c r="E4" s="5">
         <v>2</v>
@@ -12770,13 +12725,13 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C5" t="s">
         <v>1098</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="5" t="s">
         <v>1099</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1100</v>
       </c>
       <c r="E5" s="5">
         <v>2</v>
@@ -12784,13 +12739,13 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C6" t="s">
         <v>1067</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="5" t="s">
         <v>1068</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>1069</v>
       </c>
       <c r="E6" s="5">
         <v>4</v>
@@ -12798,13 +12753,13 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C7" t="s">
         <v>1096</v>
       </c>
-      <c r="C7" t="s">
-        <v>1097</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E7" s="5">
         <v>2</v>
@@ -12812,13 +12767,13 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>1059</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>1060</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -12826,13 +12781,13 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C9" t="s">
         <v>1065</v>
       </c>
-      <c r="C9" t="s">
-        <v>1066</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E9" s="5">
         <v>2</v>
@@ -12840,13 +12795,13 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>1063</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>1064</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -12854,13 +12809,13 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>1070</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>1071</v>
       </c>
       <c r="E11" s="5">
         <v>2</v>
@@ -12868,13 +12823,13 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C12" t="s">
         <v>1073</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="5" t="s">
         <v>1074</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>1075</v>
       </c>
       <c r="E12" s="5">
         <v>2</v>
@@ -12882,13 +12837,13 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C13" t="s">
         <v>1090</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="5" t="s">
         <v>1091</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>1092</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -12896,13 +12851,13 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C14" t="s">
         <v>1087</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="5" t="s">
         <v>1088</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>1089</v>
       </c>
       <c r="E14" s="5">
         <v>4</v>
@@ -12910,13 +12865,13 @@
     </row>
     <row r="15" spans="2:5" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="B15" s="11" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>1079</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>1080</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>1081</v>
       </c>
       <c r="E15" s="13">
         <v>2</v>
@@ -12924,13 +12879,13 @@
     </row>
     <row r="16" spans="2:5" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="B16" s="11" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>1085</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>1086</v>
-      </c>
       <c r="D16" s="13" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E16" s="13">
         <v>2</v>
@@ -12938,13 +12893,13 @@
     </row>
     <row r="17" spans="2:5" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="B17" s="11" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>1082</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>1083</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>1084</v>
       </c>
       <c r="E17" s="13">
         <v>2</v>
@@ -12952,13 +12907,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="11" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C18" t="s">
         <v>1164</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="5" t="s">
         <v>1165</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>1166</v>
       </c>
       <c r="E18" s="5">
         <v>4</v>
@@ -12966,13 +12921,13 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="11" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>1298</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>1299</v>
       </c>
       <c r="E19" s="5">
         <v>15</v>
@@ -13015,13 +12970,13 @@
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C2" t="s">
         <v>1167</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1168</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1169</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -13029,10 +12984,10 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -13040,10 +12995,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -13059,8 +13014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13088,13 +13043,13 @@
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C2" t="s">
         <v>1268</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="5" t="s">
         <v>1269</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1270</v>
       </c>
       <c r="E2" s="5">
         <v>15</v>
@@ -13102,7 +13057,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>107</v>
@@ -13113,10 +13068,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>1185</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1186</v>
       </c>
       <c r="E4" s="5">
         <v>10</v>
@@ -13124,10 +13079,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E5" s="5">
         <v>2</v>
@@ -13135,10 +13090,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>1251</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>1252</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
@@ -13146,13 +13101,13 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C7" t="s">
         <v>1199</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="5" t="s">
         <v>1200</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>1201</v>
       </c>
       <c r="E7" s="5">
         <v>4</v>
@@ -13160,13 +13115,13 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C8" t="s">
         <v>1218</v>
       </c>
-      <c r="C8" t="s">
-        <v>1219</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E8" s="5">
         <v>2</v>
@@ -13174,13 +13129,13 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C9" t="s">
         <v>1181</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="5" t="s">
         <v>1182</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>1183</v>
       </c>
       <c r="E9" s="5">
         <v>9</v>
@@ -13188,10 +13143,10 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>1253</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>1254</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -13199,13 +13154,13 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C11" t="s">
         <v>1240</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="5" t="s">
         <v>1241</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>1242</v>
       </c>
       <c r="E11" s="5">
         <v>10</v>
@@ -13213,13 +13168,13 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C12" t="s">
         <v>1274</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="5" t="s">
         <v>1275</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>1276</v>
       </c>
       <c r="E12" s="5">
         <v>15</v>
@@ -13227,13 +13182,13 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C13" t="s">
         <v>1232</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="5" t="s">
         <v>1233</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>1234</v>
       </c>
       <c r="E13" s="5">
         <v>2</v>
@@ -13241,13 +13196,13 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C14" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E14" s="5">
         <v>12</v>
@@ -13255,13 +13210,13 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C15" t="s">
         <v>1317</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="5" t="s">
         <v>1318</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>1319</v>
       </c>
       <c r="E15" s="5">
         <v>3</v>
@@ -13269,13 +13224,13 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C16" t="s">
         <v>1271</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="5" t="s">
         <v>1272</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>1273</v>
       </c>
       <c r="E16" s="5">
         <v>4</v>
@@ -13283,13 +13238,13 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C17" t="s">
         <v>1220</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="5" t="s">
         <v>1221</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>1222</v>
       </c>
       <c r="E17" s="5">
         <v>5</v>
@@ -13297,13 +13252,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>1261</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>1262</v>
       </c>
       <c r="E18" s="5">
         <v>6</v>
@@ -13311,13 +13266,13 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C19" t="s">
         <v>1243</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="5" t="s">
         <v>1244</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>1245</v>
       </c>
       <c r="E19" s="5">
         <v>15</v>
@@ -13325,13 +13280,13 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>1255</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>1256</v>
       </c>
       <c r="E20" s="5">
         <v>8</v>
@@ -13339,13 +13294,13 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C21" t="s">
         <v>1277</v>
       </c>
-      <c r="C21" t="s">
-        <v>1278</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E21" s="5">
         <v>10</v>
@@ -13353,13 +13308,13 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>1227</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>1228</v>
       </c>
       <c r="E22" s="5">
         <v>10</v>
@@ -13367,13 +13322,13 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C23" t="s">
         <v>634</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E23" s="5">
         <v>4</v>
@@ -13381,13 +13336,13 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C24" t="s">
         <v>1281</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="5" t="s">
         <v>1282</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>1283</v>
       </c>
       <c r="E24" s="5">
         <v>10</v>
@@ -13395,13 +13350,13 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C25" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>1306</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>1307</v>
       </c>
       <c r="E25" s="5">
         <v>5</v>
@@ -13409,13 +13364,13 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C26" t="s">
         <v>1263</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" s="5" t="s">
         <v>1264</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>1265</v>
       </c>
       <c r="E26" s="5">
         <v>15</v>
@@ -13423,13 +13378,13 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>1336</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>1337</v>
       </c>
       <c r="E27" s="5">
         <v>10</v>
@@ -13437,13 +13392,13 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C28" t="s">
         <v>1303</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" s="5" t="s">
         <v>1304</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>1305</v>
       </c>
       <c r="E28" s="5">
         <v>20</v>
@@ -13451,13 +13406,13 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C29" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E29" s="5">
         <v>10</v>
@@ -13465,13 +13420,13 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C30" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E30" s="5">
         <v>4</v>
@@ -13479,10 +13434,10 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E31" s="5">
         <v>4</v>
@@ -13490,10 +13445,10 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>1188</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>1189</v>
       </c>
       <c r="E32" s="5">
         <v>2</v>
@@ -13501,10 +13456,10 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>1293</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>1294</v>
       </c>
       <c r="E33" s="5">
         <v>2</v>
@@ -13512,10 +13467,10 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E34" s="5">
         <v>9</v>
@@ -13523,10 +13478,10 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E35" s="5">
         <v>5</v>
@@ -13534,10 +13489,10 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>1235</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>1236</v>
       </c>
       <c r="E36" s="5">
         <v>6</v>
@@ -13545,13 +13500,13 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>1238</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>1239</v>
       </c>
       <c r="E37" s="5">
         <v>8</v>
@@ -13559,13 +13514,13 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C38" t="s">
         <v>1266</v>
       </c>
-      <c r="C38" t="s">
-        <v>1267</v>
-      </c>
       <c r="D38" s="5" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E38" s="5">
         <v>20</v>
@@ -13573,13 +13528,13 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>1258</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>1259</v>
       </c>
       <c r="E39" s="5">
         <v>7</v>
@@ -13587,13 +13542,13 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C40" t="s">
         <v>1223</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" s="5" t="s">
         <v>1224</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>1225</v>
       </c>
       <c r="E40" s="5">
         <v>20</v>
@@ -13601,13 +13556,13 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>1248</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>1249</v>
       </c>
       <c r="E41" s="5">
         <v>4</v>
@@ -13622,10 +13577,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E33"/>
+  <dimension ref="B1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13653,13 +13608,13 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>1380</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>1381</v>
       </c>
       <c r="E4" s="13">
         <v>20</v>
@@ -13667,13 +13622,13 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="C5" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="E5" s="13">
         <v>8</v>
@@ -13681,13 +13636,13 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C6" t="s">
         <v>1359</v>
       </c>
-      <c r="C6" t="s">
-        <v>1360</v>
-      </c>
       <c r="D6" s="13" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E6" s="13">
         <v>5</v>
@@ -13695,13 +13650,13 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C7" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="E7" s="13">
         <v>10</v>
@@ -13709,13 +13664,13 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="C8" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E8" s="13">
         <v>20</v>
@@ -13723,13 +13678,13 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="C9" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="E9" s="13">
         <v>20</v>
@@ -13737,13 +13692,13 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>1365</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1367</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>1366</v>
       </c>
       <c r="E10" s="13">
         <v>10</v>
@@ -13751,13 +13706,13 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C11" t="s">
         <v>1395</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="13" t="s">
         <v>1396</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>1397</v>
       </c>
       <c r="E11" s="13">
         <v>50</v>
@@ -13765,13 +13720,13 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>1361</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>1362</v>
       </c>
       <c r="E12" s="13">
         <v>20</v>
@@ -13779,13 +13734,13 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>1383</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>1384</v>
       </c>
       <c r="E13" s="13">
         <v>20</v>
@@ -13793,13 +13748,13 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C14" t="s">
         <v>1403</v>
       </c>
-      <c r="C14" t="s">
-        <v>1404</v>
-      </c>
       <c r="D14" s="13" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E14" s="13">
         <v>10</v>
@@ -13807,13 +13762,13 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C15" t="s">
         <v>1388</v>
       </c>
-      <c r="C15" t="s">
-        <v>1389</v>
-      </c>
       <c r="D15" s="13" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E15" s="13">
         <v>10</v>
@@ -13821,13 +13776,13 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>1377</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>1378</v>
       </c>
       <c r="E16" s="13">
         <v>20</v>
@@ -13835,13 +13790,13 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>1405</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>1406</v>
       </c>
       <c r="E17" s="13">
         <v>50</v>
@@ -13849,13 +13804,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C18" t="s">
         <v>1371</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="13" t="s">
         <v>1372</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>1373</v>
       </c>
       <c r="E18" s="13">
         <v>15</v>
@@ -13863,13 +13818,13 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>1398</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>1399</v>
       </c>
       <c r="E19" s="13">
         <v>10</v>
@@ -13877,13 +13832,13 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C20" t="s">
         <v>1401</v>
       </c>
-      <c r="C20" t="s">
-        <v>1402</v>
-      </c>
       <c r="D20" s="13" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E20" s="13">
         <v>20</v>
@@ -13891,13 +13846,13 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C21" t="s">
         <v>1374</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="13" t="s">
         <v>1375</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>1376</v>
       </c>
       <c r="E21" s="13">
         <v>18</v>
@@ -13905,13 +13860,13 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C22" t="s">
         <v>1368</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" s="13" t="s">
         <v>1369</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>1370</v>
       </c>
       <c r="E22" s="13">
         <v>15</v>
@@ -13919,69 +13874,69 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>1414</v>
+        <v>1385</v>
       </c>
       <c r="C23" t="s">
-        <v>1416</v>
+        <v>1386</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>1415</v>
+        <v>1369</v>
       </c>
       <c r="E23" s="13">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>1386</v>
+        <v>1423</v>
       </c>
       <c r="C24" t="s">
-        <v>1387</v>
+        <v>1424</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>1370</v>
+        <v>1418</v>
       </c>
       <c r="E24" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>1427</v>
+        <v>1389</v>
       </c>
       <c r="C25" t="s">
-        <v>1428</v>
+        <v>1391</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>1422</v>
+        <v>1390</v>
       </c>
       <c r="E25" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>1390</v>
+        <v>1407</v>
       </c>
       <c r="C26" t="s">
-        <v>1392</v>
+        <v>1409</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>1391</v>
+        <v>1408</v>
       </c>
       <c r="E26" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="C27" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="E27" s="13">
         <v>4</v>
@@ -13989,85 +13944,71 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>1411</v>
+        <v>1420</v>
       </c>
       <c r="C28" t="s">
-        <v>1413</v>
+        <v>1422</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>1412</v>
+        <v>1421</v>
       </c>
       <c r="E28" s="13">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>1424</v>
+        <v>1355</v>
       </c>
       <c r="C29" t="s">
-        <v>1426</v>
+        <v>1356</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1425</v>
+        <v>1357</v>
       </c>
       <c r="E29" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>1356</v>
+        <v>1431</v>
       </c>
       <c r="C30" t="s">
-        <v>1357</v>
+        <v>1432</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>1358</v>
+        <v>849</v>
       </c>
       <c r="E30" s="13">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>1435</v>
+        <v>1392</v>
       </c>
       <c r="C31" t="s">
-        <v>1436</v>
+        <v>1223</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>849</v>
+        <v>1393</v>
       </c>
       <c r="E31" s="13">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>1393</v>
+        <v>1413</v>
       </c>
       <c r="C32" t="s">
-        <v>1224</v>
+        <v>1414</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>1394</v>
+        <v>1238</v>
       </c>
       <c r="E32" s="13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E33" s="13">
         <v>10</v>
       </c>
     </row>
